--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>74119</v>
+        <v>17731</v>
       </c>
       <c r="C2" t="n">
-        <v>75286</v>
+        <v>17314</v>
       </c>
       <c r="D2"/>
     </row>
@@ -430,10 +430,10 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>80830</v>
+        <v>18752</v>
       </c>
       <c r="D3" t="n">
-        <v>79770</v>
+        <v>19177</v>
       </c>
     </row>
     <row r="4">
@@ -442,10 +442,10 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>85185</v>
+        <v>20648</v>
       </c>
       <c r="D4" t="n">
-        <v>84232</v>
+        <v>20970</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>91801</v>
+        <v>23770</v>
       </c>
       <c r="D5" t="n">
-        <v>90596</v>
+        <v>23938</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +466,10 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="n">
-        <v>97622</v>
+        <v>26132</v>
       </c>
       <c r="D6" t="n">
-        <v>96269</v>
+        <v>26529</v>
       </c>
     </row>
     <row r="7">
@@ -478,10 +478,10 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
-        <v>102924</v>
+        <v>29672</v>
       </c>
       <c r="D7" t="n">
-        <v>101262</v>
+        <v>30143</v>
       </c>
     </row>
     <row r="8">
@@ -490,10 +490,10 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>107940</v>
+        <v>31536</v>
       </c>
       <c r="D8" t="n">
-        <v>106035</v>
+        <v>32434</v>
       </c>
     </row>
     <row r="9">
@@ -502,10 +502,10 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>112466</v>
+        <v>35869</v>
       </c>
       <c r="D9" t="n">
-        <v>110346</v>
+        <v>36747</v>
       </c>
     </row>
     <row r="10">
@@ -514,10 +514,10 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>116030</v>
+        <v>39636</v>
       </c>
       <c r="D10" t="n">
-        <v>113769</v>
+        <v>40842</v>
       </c>
     </row>
     <row r="11">
@@ -526,10 +526,10 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>119795</v>
+        <v>43954</v>
       </c>
       <c r="D11" t="n">
-        <v>117334</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12">
@@ -538,10 +538,10 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>123543</v>
+        <v>49727</v>
       </c>
       <c r="D12" t="n">
-        <v>120946</v>
+        <v>51105</v>
       </c>
     </row>
     <row r="13">
@@ -550,10 +550,10 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>126860</v>
+        <v>56937</v>
       </c>
       <c r="D13" t="n">
-        <v>124123</v>
+        <v>58425</v>
       </c>
     </row>
     <row r="14">
@@ -562,10 +562,10 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>129789</v>
+        <v>64270</v>
       </c>
       <c r="D14" t="n">
-        <v>126837</v>
+        <v>66640</v>
       </c>
     </row>
     <row r="15">
@@ -574,10 +574,10 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>132469</v>
+        <v>71071</v>
       </c>
       <c r="D15" t="n">
-        <v>129333</v>
+        <v>74284</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>132318</v>
+        <v>84397</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5194</v>
+        <v>1197</v>
       </c>
       <c r="C2" t="n">
-        <v>5262</v>
+        <v>1169</v>
       </c>
       <c r="D2"/>
     </row>
@@ -636,10 +636,10 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>5703</v>
+        <v>1237</v>
       </c>
       <c r="D3" t="n">
-        <v>5652</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="4">
@@ -648,10 +648,10 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>5899</v>
+        <v>1337</v>
       </c>
       <c r="D4" t="n">
-        <v>5943</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>6453</v>
+        <v>1467</v>
       </c>
       <c r="D5" t="n">
-        <v>6485</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="6">
@@ -672,10 +672,10 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="n">
-        <v>6770</v>
+        <v>1564</v>
       </c>
       <c r="D6" t="n">
-        <v>6881</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="7">
@@ -684,10 +684,10 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
-        <v>7045</v>
+        <v>1745</v>
       </c>
       <c r="D7" t="n">
-        <v>7214</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="8">
@@ -696,10 +696,10 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>7309</v>
+        <v>1840</v>
       </c>
       <c r="D8" t="n">
-        <v>7541</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="9">
@@ -708,10 +708,10 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>7536</v>
+        <v>2023</v>
       </c>
       <c r="D9" t="n">
-        <v>7833</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="10">
@@ -720,10 +720,10 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>7679</v>
+        <v>2168</v>
       </c>
       <c r="D10" t="n">
-        <v>8048</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="11">
@@ -732,10 +732,10 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>7920</v>
+        <v>2332</v>
       </c>
       <c r="D11" t="n">
-        <v>8319</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="12">
@@ -744,10 +744,10 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>8125</v>
+        <v>2503</v>
       </c>
       <c r="D12" t="n">
-        <v>8576</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="13">
@@ -756,10 +756,10 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>8269</v>
+        <v>2761</v>
       </c>
       <c r="D13" t="n">
-        <v>8788</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="14">
@@ -768,10 +768,10 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>8450</v>
+        <v>2976</v>
       </c>
       <c r="D14" t="n">
-        <v>8984</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="15">
@@ -780,10 +780,10 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>8565</v>
+        <v>3223</v>
       </c>
       <c r="D15" t="n">
-        <v>9144</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="16">
@@ -793,7 +793,7 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>9379</v>
+        <v>3193</v>
       </c>
     </row>
   </sheetData>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-16</t>
   </si>
 </sst>
 </file>
@@ -411,30 +414,37 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>17731</v>
+        <v>74265</v>
       </c>
       <c r="C2" t="n">
-        <v>17314</v>
+        <v>75286</v>
       </c>
       <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>77303</v>
+      </c>
       <c r="C3" t="n">
-        <v>18752</v>
+        <v>80830</v>
       </c>
       <c r="D3" t="n">
-        <v>19177</v>
-      </c>
+        <v>79770</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -442,10 +452,13 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>20648</v>
+        <v>85185</v>
       </c>
       <c r="D4" t="n">
-        <v>20970</v>
+        <v>84232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82898</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +467,13 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>23770</v>
+        <v>91801</v>
       </c>
       <c r="D5" t="n">
-        <v>23938</v>
+        <v>90596</v>
+      </c>
+      <c r="E5" t="n">
+        <v>88220</v>
       </c>
     </row>
     <row r="6">
@@ -466,10 +482,13 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="n">
-        <v>26132</v>
+        <v>97622</v>
       </c>
       <c r="D6" t="n">
-        <v>26529</v>
+        <v>96269</v>
+      </c>
+      <c r="E6" t="n">
+        <v>93952</v>
       </c>
     </row>
     <row r="7">
@@ -478,10 +497,13 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
-        <v>29672</v>
+        <v>102924</v>
       </c>
       <c r="D7" t="n">
-        <v>30143</v>
+        <v>101262</v>
+      </c>
+      <c r="E7" t="n">
+        <v>99079</v>
       </c>
     </row>
     <row r="8">
@@ -490,10 +512,13 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>31536</v>
+        <v>107940</v>
       </c>
       <c r="D8" t="n">
-        <v>32434</v>
+        <v>106035</v>
+      </c>
+      <c r="E8" t="n">
+        <v>103831</v>
       </c>
     </row>
     <row r="9">
@@ -502,10 +527,13 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>35869</v>
+        <v>112466</v>
       </c>
       <c r="D9" t="n">
-        <v>36747</v>
+        <v>110346</v>
+      </c>
+      <c r="E9" t="n">
+        <v>108236</v>
       </c>
     </row>
     <row r="10">
@@ -514,10 +542,13 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>39636</v>
+        <v>116030</v>
       </c>
       <c r="D10" t="n">
-        <v>40842</v>
+        <v>113769</v>
+      </c>
+      <c r="E10" t="n">
+        <v>112066</v>
       </c>
     </row>
     <row r="11">
@@ -526,10 +557,13 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>43954</v>
+        <v>119795</v>
       </c>
       <c r="D11" t="n">
-        <v>45219</v>
+        <v>117334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>115324</v>
       </c>
     </row>
     <row r="12">
@@ -538,10 +572,13 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>49727</v>
+        <v>123543</v>
       </c>
       <c r="D12" t="n">
-        <v>51105</v>
+        <v>120946</v>
+      </c>
+      <c r="E12" t="n">
+        <v>118947</v>
       </c>
     </row>
     <row r="13">
@@ -550,10 +587,13 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>56937</v>
+        <v>126860</v>
       </c>
       <c r="D13" t="n">
-        <v>58425</v>
+        <v>124123</v>
+      </c>
+      <c r="E13" t="n">
+        <v>122519</v>
       </c>
     </row>
     <row r="14">
@@ -562,10 +602,13 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>64270</v>
+        <v>129789</v>
       </c>
       <c r="D14" t="n">
-        <v>66640</v>
+        <v>126837</v>
+      </c>
+      <c r="E14" t="n">
+        <v>124975</v>
       </c>
     </row>
     <row r="15">
@@ -574,10 +617,13 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>71071</v>
+        <v>132469</v>
       </c>
       <c r="D15" t="n">
-        <v>74284</v>
+        <v>129333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>127536</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +633,21 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>84397</v>
+        <v>132318</v>
+      </c>
+      <c r="E16" t="n">
+        <v>129888</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>132387</v>
       </c>
     </row>
   </sheetData>
@@ -617,30 +677,37 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1197</v>
+        <v>5204</v>
       </c>
       <c r="C2" t="n">
-        <v>1169</v>
+        <v>5262</v>
       </c>
       <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>5467</v>
+      </c>
       <c r="C3" t="n">
-        <v>1237</v>
+        <v>5703</v>
       </c>
       <c r="D3" t="n">
-        <v>1257</v>
-      </c>
+        <v>5652</v>
+      </c>
+      <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -648,10 +715,13 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="n">
-        <v>1337</v>
+        <v>5899</v>
       </c>
       <c r="D4" t="n">
-        <v>1311</v>
+        <v>5943</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5854</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +730,13 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
-        <v>1467</v>
+        <v>6453</v>
       </c>
       <c r="D5" t="n">
-        <v>1443</v>
+        <v>6485</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6214</v>
       </c>
     </row>
     <row r="6">
@@ -672,10 +745,13 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="n">
-        <v>1564</v>
+        <v>6770</v>
       </c>
       <c r="D6" t="n">
-        <v>1557</v>
+        <v>6881</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6657</v>
       </c>
     </row>
     <row r="7">
@@ -684,10 +760,13 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
-        <v>1745</v>
+        <v>7045</v>
       </c>
       <c r="D7" t="n">
-        <v>1737</v>
+        <v>7214</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7071</v>
       </c>
     </row>
     <row r="8">
@@ -696,10 +775,13 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="n">
-        <v>1840</v>
+        <v>7309</v>
       </c>
       <c r="D8" t="n">
-        <v>1795</v>
+        <v>7541</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7455</v>
       </c>
     </row>
     <row r="9">
@@ -708,10 +790,13 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="n">
-        <v>2023</v>
+        <v>7536</v>
       </c>
       <c r="D9" t="n">
-        <v>1948</v>
+        <v>7833</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7820</v>
       </c>
     </row>
     <row r="10">
@@ -720,10 +805,13 @@
       </c>
       <c r="B10"/>
       <c r="C10" t="n">
-        <v>2168</v>
+        <v>7679</v>
       </c>
       <c r="D10" t="n">
-        <v>2080</v>
+        <v>8048</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8152</v>
       </c>
     </row>
     <row r="11">
@@ -732,10 +820,13 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
-        <v>2332</v>
+        <v>7920</v>
       </c>
       <c r="D11" t="n">
-        <v>2193</v>
+        <v>8319</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8419</v>
       </c>
     </row>
     <row r="12">
@@ -744,10 +835,13 @@
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
-        <v>2503</v>
+        <v>8125</v>
       </c>
       <c r="D12" t="n">
-        <v>2360</v>
+        <v>8576</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8710</v>
       </c>
     </row>
     <row r="13">
@@ -756,10 +850,13 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
-        <v>2761</v>
+        <v>8269</v>
       </c>
       <c r="D13" t="n">
-        <v>2547</v>
+        <v>8788</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9008</v>
       </c>
     </row>
     <row r="14">
@@ -768,10 +865,13 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>2976</v>
+        <v>8450</v>
       </c>
       <c r="D14" t="n">
-        <v>2810</v>
+        <v>8984</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9210</v>
       </c>
     </row>
     <row r="15">
@@ -780,10 +880,13 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>3223</v>
+        <v>8565</v>
       </c>
       <c r="D15" t="n">
-        <v>2952</v>
+        <v>9144</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9425</v>
       </c>
     </row>
     <row r="16">
@@ -793,7 +896,21 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>3193</v>
+        <v>9379</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9595</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>9805</v>
       </c>
     </row>
   </sheetData>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-17</t>
   </si>
 </sst>
 </file>
@@ -417,6 +420,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -430,13 +436,14 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>77303</v>
+        <v>77688</v>
       </c>
       <c r="C3" t="n">
         <v>80830</v>
@@ -445,12 +452,15 @@
         <v>79770</v>
       </c>
       <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>80553</v>
+      </c>
       <c r="C4" t="n">
         <v>85185</v>
       </c>
@@ -460,6 +470,7 @@
       <c r="E4" t="n">
         <v>82898</v>
       </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -475,6 +486,9 @@
       <c r="E5" t="n">
         <v>88220</v>
       </c>
+      <c r="F5" t="n">
+        <v>86577</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -490,6 +504,9 @@
       <c r="E6" t="n">
         <v>93952</v>
       </c>
+      <c r="F6" t="n">
+        <v>92124</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -505,6 +522,9 @@
       <c r="E7" t="n">
         <v>99079</v>
       </c>
+      <c r="F7" t="n">
+        <v>97079</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -520,6 +540,9 @@
       <c r="E8" t="n">
         <v>103831</v>
       </c>
+      <c r="F8" t="n">
+        <v>101536</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -535,6 +558,9 @@
       <c r="E9" t="n">
         <v>108236</v>
       </c>
+      <c r="F9" t="n">
+        <v>105610</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -550,6 +576,9 @@
       <c r="E10" t="n">
         <v>112066</v>
       </c>
+      <c r="F10" t="n">
+        <v>109022</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -565,6 +594,9 @@
       <c r="E11" t="n">
         <v>115324</v>
       </c>
+      <c r="F11" t="n">
+        <v>112222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -580,6 +612,9 @@
       <c r="E12" t="n">
         <v>118947</v>
       </c>
+      <c r="F12" t="n">
+        <v>115460</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -595,6 +630,9 @@
       <c r="E13" t="n">
         <v>122519</v>
       </c>
+      <c r="F13" t="n">
+        <v>118555</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -610,6 +648,9 @@
       <c r="E14" t="n">
         <v>124975</v>
       </c>
+      <c r="F14" t="n">
+        <v>121043</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -624,6 +665,9 @@
       </c>
       <c r="E15" t="n">
         <v>127536</v>
+      </c>
+      <c r="F15" t="n">
+        <v>123331</v>
       </c>
     </row>
     <row r="16">
@@ -637,6 +681,9 @@
       </c>
       <c r="E16" t="n">
         <v>129888</v>
+      </c>
+      <c r="F16" t="n">
+        <v>125649</v>
       </c>
     </row>
     <row r="17">
@@ -648,6 +695,21 @@
       <c r="D17"/>
       <c r="E17" t="n">
         <v>132387</v>
+      </c>
+      <c r="F17" t="n">
+        <v>127754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>129766</v>
       </c>
     </row>
   </sheetData>
@@ -680,6 +742,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -693,13 +758,14 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5467</v>
+        <v>5475</v>
       </c>
       <c r="C3" t="n">
         <v>5703</v>
@@ -708,12 +774,15 @@
         <v>5652</v>
       </c>
       <c r="E3"/>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>5648</v>
+      </c>
       <c r="C4" t="n">
         <v>5899</v>
       </c>
@@ -723,6 +792,7 @@
       <c r="E4" t="n">
         <v>5854</v>
       </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -738,6 +808,9 @@
       <c r="E5" t="n">
         <v>6214</v>
       </c>
+      <c r="F5" t="n">
+        <v>6084</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -753,6 +826,9 @@
       <c r="E6" t="n">
         <v>6657</v>
       </c>
+      <c r="F6" t="n">
+        <v>6482</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -768,6 +844,9 @@
       <c r="E7" t="n">
         <v>7071</v>
       </c>
+      <c r="F7" t="n">
+        <v>6839</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -783,6 +862,9 @@
       <c r="E8" t="n">
         <v>7455</v>
       </c>
+      <c r="F8" t="n">
+        <v>7160</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -798,6 +880,9 @@
       <c r="E9" t="n">
         <v>7820</v>
       </c>
+      <c r="F9" t="n">
+        <v>7456</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -813,6 +898,9 @@
       <c r="E10" t="n">
         <v>8152</v>
       </c>
+      <c r="F10" t="n">
+        <v>7705</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -828,6 +916,9 @@
       <c r="E11" t="n">
         <v>8419</v>
       </c>
+      <c r="F11" t="n">
+        <v>7938</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -843,6 +934,9 @@
       <c r="E12" t="n">
         <v>8710</v>
       </c>
+      <c r="F12" t="n">
+        <v>8175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -858,6 +952,9 @@
       <c r="E13" t="n">
         <v>9008</v>
       </c>
+      <c r="F13" t="n">
+        <v>8403</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -873,6 +970,9 @@
       <c r="E14" t="n">
         <v>9210</v>
       </c>
+      <c r="F14" t="n">
+        <v>8585</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -887,6 +987,9 @@
       </c>
       <c r="E15" t="n">
         <v>9425</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8750</v>
       </c>
     </row>
     <row r="16">
@@ -900,6 +1003,9 @@
       </c>
       <c r="E16" t="n">
         <v>9595</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8917</v>
       </c>
     </row>
     <row r="17">
@@ -912,6 +1018,21 @@
       <c r="E17" t="n">
         <v>9805</v>
       </c>
+      <c r="F17" t="n">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>9217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18</t>
   </si>
 </sst>
 </file>
@@ -423,13 +426,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>74265</v>
+        <v>74310</v>
       </c>
       <c r="C2" t="n">
         <v>75286</v>
@@ -437,13 +443,14 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>77688</v>
+        <v>77747</v>
       </c>
       <c r="C3" t="n">
         <v>80830</v>
@@ -453,13 +460,14 @@
       </c>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>80553</v>
+        <v>80782</v>
       </c>
       <c r="C4" t="n">
         <v>85185</v>
@@ -471,12 +479,15 @@
         <v>82898</v>
       </c>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>84518</v>
+      </c>
       <c r="C5" t="n">
         <v>91801</v>
       </c>
@@ -489,6 +500,7 @@
       <c r="F5" t="n">
         <v>86577</v>
       </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -507,6 +519,9 @@
       <c r="F6" t="n">
         <v>92124</v>
       </c>
+      <c r="G6" t="n">
+        <v>89875</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -525,6 +540,9 @@
       <c r="F7" t="n">
         <v>97079</v>
       </c>
+      <c r="G7" t="n">
+        <v>95222</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -543,6 +561,9 @@
       <c r="F8" t="n">
         <v>101536</v>
       </c>
+      <c r="G8" t="n">
+        <v>100230</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -561,6 +582,9 @@
       <c r="F9" t="n">
         <v>105610</v>
       </c>
+      <c r="G9" t="n">
+        <v>104916</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -579,6 +603,9 @@
       <c r="F10" t="n">
         <v>109022</v>
       </c>
+      <c r="G10" t="n">
+        <v>109005</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -597,6 +624,9 @@
       <c r="F11" t="n">
         <v>112222</v>
       </c>
+      <c r="G11" t="n">
+        <v>112746</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -615,6 +645,9 @@
       <c r="F12" t="n">
         <v>115460</v>
       </c>
+      <c r="G12" t="n">
+        <v>116408</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -633,6 +666,9 @@
       <c r="F13" t="n">
         <v>118555</v>
       </c>
+      <c r="G13" t="n">
+        <v>119830</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -651,6 +687,9 @@
       <c r="F14" t="n">
         <v>121043</v>
       </c>
+      <c r="G14" t="n">
+        <v>122795</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -668,6 +707,9 @@
       </c>
       <c r="F15" t="n">
         <v>123331</v>
+      </c>
+      <c r="G15" t="n">
+        <v>125608</v>
       </c>
     </row>
     <row r="16">
@@ -684,6 +726,9 @@
       </c>
       <c r="F16" t="n">
         <v>125649</v>
+      </c>
+      <c r="G16" t="n">
+        <v>128294</v>
       </c>
     </row>
     <row r="17">
@@ -698,6 +743,9 @@
       </c>
       <c r="F17" t="n">
         <v>127754</v>
+      </c>
+      <c r="G17" t="n">
+        <v>130711</v>
       </c>
     </row>
     <row r="18">
@@ -710,6 +758,22 @@
       <c r="E18"/>
       <c r="F18" t="n">
         <v>129766</v>
+      </c>
+      <c r="G18" t="n">
+        <v>132930</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>135155</v>
       </c>
     </row>
   </sheetData>
@@ -745,6 +809,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -759,6 +826,7 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -775,13 +843,14 @@
       </c>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>5648</v>
+        <v>5657</v>
       </c>
       <c r="C4" t="n">
         <v>5899</v>
@@ -793,12 +862,15 @@
         <v>5854</v>
       </c>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>5902</v>
+      </c>
       <c r="C5" t="n">
         <v>6453</v>
       </c>
@@ -811,6 +883,7 @@
       <c r="F5" t="n">
         <v>6084</v>
       </c>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -829,6 +902,9 @@
       <c r="F6" t="n">
         <v>6482</v>
       </c>
+      <c r="G6" t="n">
+        <v>6336</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -847,6 +923,9 @@
       <c r="F7" t="n">
         <v>6839</v>
       </c>
+      <c r="G7" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -865,6 +944,9 @@
       <c r="F8" t="n">
         <v>7160</v>
       </c>
+      <c r="G8" t="n">
+        <v>7143</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -883,6 +965,9 @@
       <c r="F9" t="n">
         <v>7456</v>
       </c>
+      <c r="G9" t="n">
+        <v>7521</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -901,6 +986,9 @@
       <c r="F10" t="n">
         <v>7705</v>
       </c>
+      <c r="G10" t="n">
+        <v>7869</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -919,6 +1007,9 @@
       <c r="F11" t="n">
         <v>7938</v>
       </c>
+      <c r="G11" t="n">
+        <v>8170</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -937,6 +1028,9 @@
       <c r="F12" t="n">
         <v>8175</v>
       </c>
+      <c r="G12" t="n">
+        <v>8469</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -955,6 +1049,9 @@
       <c r="F13" t="n">
         <v>8403</v>
       </c>
+      <c r="G13" t="n">
+        <v>8762</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -973,6 +1070,9 @@
       <c r="F14" t="n">
         <v>8585</v>
       </c>
+      <c r="G14" t="n">
+        <v>9008</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -990,6 +1090,9 @@
       </c>
       <c r="F15" t="n">
         <v>8750</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9251</v>
       </c>
     </row>
     <row r="16">
@@ -1006,6 +1109,9 @@
       </c>
       <c r="F16" t="n">
         <v>8917</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9461</v>
       </c>
     </row>
     <row r="17">
@@ -1020,6 +1126,9 @@
       </c>
       <c r="F17" t="n">
         <v>9070</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9679</v>
       </c>
     </row>
     <row r="18">
@@ -1033,6 +1142,22 @@
       <c r="F18" t="n">
         <v>9217</v>
       </c>
+      <c r="G18" t="n">
+        <v>9868</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>10060</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-19</t>
   </si>
 </sst>
 </file>
@@ -429,6 +432,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -444,6 +450,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -461,6 +468,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -480,13 +488,14 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>84518</v>
+        <v>85484</v>
       </c>
       <c r="C5" t="n">
         <v>91801</v>
@@ -501,12 +510,15 @@
         <v>86577</v>
       </c>
       <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>90877</v>
+      </c>
       <c r="C6" t="n">
         <v>97622</v>
       </c>
@@ -522,6 +534,7 @@
       <c r="G6" t="n">
         <v>89875</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -543,6 +556,9 @@
       <c r="G7" t="n">
         <v>95222</v>
       </c>
+      <c r="H7" t="n">
+        <v>96065</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -564,6 +580,9 @@
       <c r="G8" t="n">
         <v>100230</v>
       </c>
+      <c r="H8" t="n">
+        <v>100854</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -585,6 +604,9 @@
       <c r="G9" t="n">
         <v>104916</v>
       </c>
+      <c r="H9" t="n">
+        <v>105250</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -606,6 +628,9 @@
       <c r="G10" t="n">
         <v>109005</v>
       </c>
+      <c r="H10" t="n">
+        <v>108953</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -627,6 +652,9 @@
       <c r="G11" t="n">
         <v>112746</v>
       </c>
+      <c r="H11" t="n">
+        <v>112472</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -648,6 +676,9 @@
       <c r="G12" t="n">
         <v>116408</v>
       </c>
+      <c r="H12" t="n">
+        <v>115897</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -669,6 +700,9 @@
       <c r="G13" t="n">
         <v>119830</v>
       </c>
+      <c r="H13" t="n">
+        <v>119020</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -690,6 +724,9 @@
       <c r="G14" t="n">
         <v>122795</v>
       </c>
+      <c r="H14" t="n">
+        <v>121762</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -710,6 +747,9 @@
       </c>
       <c r="G15" t="n">
         <v>125608</v>
+      </c>
+      <c r="H15" t="n">
+        <v>124338</v>
       </c>
     </row>
     <row r="16">
@@ -729,6 +769,9 @@
       </c>
       <c r="G16" t="n">
         <v>128294</v>
+      </c>
+      <c r="H16" t="n">
+        <v>126954</v>
       </c>
     </row>
     <row r="17">
@@ -746,6 +789,9 @@
       </c>
       <c r="G17" t="n">
         <v>130711</v>
+      </c>
+      <c r="H17" t="n">
+        <v>129141</v>
       </c>
     </row>
     <row r="18">
@@ -761,6 +807,9 @@
       </c>
       <c r="G18" t="n">
         <v>132930</v>
+      </c>
+      <c r="H18" t="n">
+        <v>131245</v>
       </c>
     </row>
     <row r="19">
@@ -774,6 +823,23 @@
       <c r="F19"/>
       <c r="G19" t="n">
         <v>135155</v>
+      </c>
+      <c r="H19" t="n">
+        <v>133348</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="n">
+        <v>135444</v>
       </c>
     </row>
   </sheetData>
@@ -812,6 +878,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -827,6 +896,7 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -844,6 +914,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -863,13 +934,14 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5902</v>
+        <v>5869</v>
       </c>
       <c r="C5" t="n">
         <v>6453</v>
@@ -884,12 +956,15 @@
         <v>6084</v>
       </c>
       <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="n">
+        <v>6281</v>
+      </c>
       <c r="C6" t="n">
         <v>6770</v>
       </c>
@@ -905,6 +980,7 @@
       <c r="G6" t="n">
         <v>6336</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -926,6 +1002,9 @@
       <c r="G7" t="n">
         <v>6750</v>
       </c>
+      <c r="H7" t="n">
+        <v>6598</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -947,6 +1026,9 @@
       <c r="G8" t="n">
         <v>7143</v>
       </c>
+      <c r="H8" t="n">
+        <v>6913</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -968,6 +1050,9 @@
       <c r="G9" t="n">
         <v>7521</v>
       </c>
+      <c r="H9" t="n">
+        <v>7208</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -989,6 +1074,9 @@
       <c r="G10" t="n">
         <v>7869</v>
       </c>
+      <c r="H10" t="n">
+        <v>7469</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1010,6 +1098,9 @@
       <c r="G11" t="n">
         <v>8170</v>
       </c>
+      <c r="H11" t="n">
+        <v>7705</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1031,6 +1122,9 @@
       <c r="G12" t="n">
         <v>8469</v>
       </c>
+      <c r="H12" t="n">
+        <v>7935</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1052,6 +1146,9 @@
       <c r="G13" t="n">
         <v>8762</v>
       </c>
+      <c r="H13" t="n">
+        <v>8152</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1073,6 +1170,9 @@
       <c r="G14" t="n">
         <v>9008</v>
       </c>
+      <c r="H14" t="n">
+        <v>8339</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1093,6 +1193,9 @@
       </c>
       <c r="G15" t="n">
         <v>9251</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8520</v>
       </c>
     </row>
     <row r="16">
@@ -1112,6 +1215,9 @@
       </c>
       <c r="G16" t="n">
         <v>9461</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8689</v>
       </c>
     </row>
     <row r="17">
@@ -1129,6 +1235,9 @@
       </c>
       <c r="G17" t="n">
         <v>9679</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8846</v>
       </c>
     </row>
     <row r="18">
@@ -1144,6 +1253,9 @@
       </c>
       <c r="G18" t="n">
         <v>9868</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8991</v>
       </c>
     </row>
     <row r="19">
@@ -1158,6 +1270,23 @@
       <c r="G19" t="n">
         <v>10060</v>
       </c>
+      <c r="H19" t="n">
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="n">
+        <v>9278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
   </si>
 </sst>
 </file>
@@ -435,6 +438,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -451,6 +457,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -469,6 +476,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -489,6 +497,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -511,13 +520,14 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>90877</v>
+        <v>90856</v>
       </c>
       <c r="C6" t="n">
         <v>97622</v>
@@ -535,12 +545,15 @@
         <v>89875</v>
       </c>
       <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>99190</v>
+      </c>
       <c r="C7" t="n">
         <v>102924</v>
       </c>
@@ -559,6 +572,7 @@
       <c r="H7" t="n">
         <v>96065</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -583,6 +597,9 @@
       <c r="H8" t="n">
         <v>100854</v>
       </c>
+      <c r="I8" t="n">
+        <v>104242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -607,6 +624,9 @@
       <c r="H9" t="n">
         <v>105250</v>
       </c>
+      <c r="I9" t="n">
+        <v>109086</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -631,6 +651,9 @@
       <c r="H10" t="n">
         <v>108953</v>
       </c>
+      <c r="I10" t="n">
+        <v>113470</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -655,6 +678,9 @@
       <c r="H11" t="n">
         <v>112472</v>
       </c>
+      <c r="I11" t="n">
+        <v>117343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -679,6 +705,9 @@
       <c r="H12" t="n">
         <v>115897</v>
       </c>
+      <c r="I12" t="n">
+        <v>121274</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -703,6 +732,9 @@
       <c r="H13" t="n">
         <v>119020</v>
       </c>
+      <c r="I13" t="n">
+        <v>125134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -727,6 +759,9 @@
       <c r="H14" t="n">
         <v>121762</v>
       </c>
+      <c r="I14" t="n">
+        <v>128312</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -750,6 +785,9 @@
       </c>
       <c r="H15" t="n">
         <v>124338</v>
+      </c>
+      <c r="I15" t="n">
+        <v>131428</v>
       </c>
     </row>
     <row r="16">
@@ -772,6 +810,9 @@
       </c>
       <c r="H16" t="n">
         <v>126954</v>
+      </c>
+      <c r="I16" t="n">
+        <v>134232</v>
       </c>
     </row>
     <row r="17">
@@ -792,6 +833,9 @@
       </c>
       <c r="H17" t="n">
         <v>129141</v>
+      </c>
+      <c r="I17" t="n">
+        <v>136913</v>
       </c>
     </row>
     <row r="18">
@@ -810,6 +854,9 @@
       </c>
       <c r="H18" t="n">
         <v>131245</v>
+      </c>
+      <c r="I18" t="n">
+        <v>139328</v>
       </c>
     </row>
     <row r="19">
@@ -826,6 +873,9 @@
       </c>
       <c r="H19" t="n">
         <v>133348</v>
+      </c>
+      <c r="I19" t="n">
+        <v>141778</v>
       </c>
     </row>
     <row r="20">
@@ -840,6 +890,24 @@
       <c r="G20"/>
       <c r="H20" t="n">
         <v>135444</v>
+      </c>
+      <c r="I20" t="n">
+        <v>144154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>146460</v>
       </c>
     </row>
   </sheetData>
@@ -881,6 +949,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -897,6 +968,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -915,6 +987,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -935,6 +1008,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -957,13 +1031,14 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>6281</v>
+        <v>6279</v>
       </c>
       <c r="C6" t="n">
         <v>6770</v>
@@ -981,12 +1056,15 @@
         <v>6336</v>
       </c>
       <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="n">
+        <v>6756</v>
+      </c>
       <c r="C7" t="n">
         <v>7045</v>
       </c>
@@ -1005,6 +1083,7 @@
       <c r="H7" t="n">
         <v>6598</v>
       </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1029,6 +1108,9 @@
       <c r="H8" t="n">
         <v>6913</v>
       </c>
+      <c r="I8" t="n">
+        <v>7048</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1053,6 +1135,9 @@
       <c r="H9" t="n">
         <v>7208</v>
       </c>
+      <c r="I9" t="n">
+        <v>7332</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1077,6 +1162,9 @@
       <c r="H10" t="n">
         <v>7469</v>
       </c>
+      <c r="I10" t="n">
+        <v>7588</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1101,6 +1189,9 @@
       <c r="H11" t="n">
         <v>7705</v>
       </c>
+      <c r="I11" t="n">
+        <v>7813</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1125,6 +1216,9 @@
       <c r="H12" t="n">
         <v>7935</v>
       </c>
+      <c r="I12" t="n">
+        <v>8041</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1149,6 +1243,9 @@
       <c r="H13" t="n">
         <v>8152</v>
       </c>
+      <c r="I13" t="n">
+        <v>8263</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1173,6 +1270,9 @@
       <c r="H14" t="n">
         <v>8339</v>
       </c>
+      <c r="I14" t="n">
+        <v>8446</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1196,6 +1296,9 @@
       </c>
       <c r="H15" t="n">
         <v>8520</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8624</v>
       </c>
     </row>
     <row r="16">
@@ -1218,6 +1321,9 @@
       </c>
       <c r="H16" t="n">
         <v>8689</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8784</v>
       </c>
     </row>
     <row r="17">
@@ -1238,6 +1344,9 @@
       </c>
       <c r="H17" t="n">
         <v>8846</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8937</v>
       </c>
     </row>
     <row r="18">
@@ -1256,6 +1365,9 @@
       </c>
       <c r="H18" t="n">
         <v>8991</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9074</v>
       </c>
     </row>
     <row r="19">
@@ -1272,6 +1384,9 @@
       </c>
       <c r="H19" t="n">
         <v>9135</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9213</v>
       </c>
     </row>
     <row r="20">
@@ -1287,6 +1402,24 @@
       <c r="H20" t="n">
         <v>9278</v>
       </c>
+      <c r="I20" t="n">
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>9477</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-21</t>
   </si>
 </sst>
 </file>
@@ -441,6 +444,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -458,6 +464,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -477,6 +484,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -498,6 +506,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -521,6 +530,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -546,13 +556,14 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>99190</v>
+        <v>98508</v>
       </c>
       <c r="C7" t="n">
         <v>102924</v>
@@ -573,12 +584,15 @@
         <v>96065</v>
       </c>
       <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>104093</v>
+      </c>
       <c r="C8" t="n">
         <v>107940</v>
       </c>
@@ -600,6 +614,7 @@
       <c r="I8" t="n">
         <v>104242</v>
       </c>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -627,6 +642,9 @@
       <c r="I9" t="n">
         <v>109086</v>
       </c>
+      <c r="J9" t="n">
+        <v>109310</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -654,6 +672,9 @@
       <c r="I10" t="n">
         <v>113470</v>
       </c>
+      <c r="J10" t="n">
+        <v>114018</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -681,6 +702,9 @@
       <c r="I11" t="n">
         <v>117343</v>
       </c>
+      <c r="J11" t="n">
+        <v>118270</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -708,6 +732,9 @@
       <c r="I12" t="n">
         <v>121274</v>
       </c>
+      <c r="J12" t="n">
+        <v>122517</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -735,6 +762,9 @@
       <c r="I13" t="n">
         <v>125134</v>
       </c>
+      <c r="J13" t="n">
+        <v>126648</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -762,6 +792,9 @@
       <c r="I14" t="n">
         <v>128312</v>
       </c>
+      <c r="J14" t="n">
+        <v>130189</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -788,6 +821,9 @@
       </c>
       <c r="I15" t="n">
         <v>131428</v>
+      </c>
+      <c r="J15" t="n">
+        <v>133617</v>
       </c>
     </row>
     <row r="16">
@@ -813,6 +849,9 @@
       </c>
       <c r="I16" t="n">
         <v>134232</v>
+      </c>
+      <c r="J16" t="n">
+        <v>136767</v>
       </c>
     </row>
     <row r="17">
@@ -836,6 +875,9 @@
       </c>
       <c r="I17" t="n">
         <v>136913</v>
+      </c>
+      <c r="J17" t="n">
+        <v>139711</v>
       </c>
     </row>
     <row r="18">
@@ -857,6 +899,9 @@
       </c>
       <c r="I18" t="n">
         <v>139328</v>
+      </c>
+      <c r="J18" t="n">
+        <v>142375</v>
       </c>
     </row>
     <row r="19">
@@ -876,6 +921,9 @@
       </c>
       <c r="I19" t="n">
         <v>141778</v>
+      </c>
+      <c r="J19" t="n">
+        <v>145047</v>
       </c>
     </row>
     <row r="20">
@@ -893,6 +941,9 @@
       </c>
       <c r="I20" t="n">
         <v>144154</v>
+      </c>
+      <c r="J20" t="n">
+        <v>147641</v>
       </c>
     </row>
     <row r="21">
@@ -908,6 +959,25 @@
       <c r="H21"/>
       <c r="I21" t="n">
         <v>146460</v>
+      </c>
+      <c r="J21" t="n">
+        <v>150171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="n">
+        <v>152825</v>
       </c>
     </row>
   </sheetData>
@@ -952,6 +1022,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -969,6 +1042,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
+      <c r="J2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -988,6 +1062,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
+      <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1009,6 +1084,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1032,6 +1108,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1057,13 +1134,14 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>6756</v>
+        <v>6711</v>
       </c>
       <c r="C7" t="n">
         <v>7045</v>
@@ -1084,12 +1162,15 @@
         <v>6598</v>
       </c>
       <c r="I7"/>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="n">
+        <v>7221</v>
+      </c>
       <c r="C8" t="n">
         <v>7309</v>
       </c>
@@ -1111,6 +1192,7 @@
       <c r="I8" t="n">
         <v>7048</v>
       </c>
+      <c r="J8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1138,6 +1220,9 @@
       <c r="I9" t="n">
         <v>7332</v>
       </c>
+      <c r="J9" t="n">
+        <v>7496</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1165,6 +1250,9 @@
       <c r="I10" t="n">
         <v>7588</v>
       </c>
+      <c r="J10" t="n">
+        <v>7809</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1192,6 +1280,9 @@
       <c r="I11" t="n">
         <v>7813</v>
       </c>
+      <c r="J11" t="n">
+        <v>8090</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1219,6 +1310,9 @@
       <c r="I12" t="n">
         <v>8041</v>
       </c>
+      <c r="J12" t="n">
+        <v>8371</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1246,6 +1340,9 @@
       <c r="I13" t="n">
         <v>8263</v>
       </c>
+      <c r="J13" t="n">
+        <v>8645</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1273,6 +1370,9 @@
       <c r="I14" t="n">
         <v>8446</v>
       </c>
+      <c r="J14" t="n">
+        <v>8880</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1299,6 +1399,9 @@
       </c>
       <c r="I15" t="n">
         <v>8624</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9107</v>
       </c>
     </row>
     <row r="16">
@@ -1324,6 +1427,9 @@
       </c>
       <c r="I16" t="n">
         <v>8784</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9314</v>
       </c>
     </row>
     <row r="17">
@@ -1347,6 +1453,9 @@
       </c>
       <c r="I17" t="n">
         <v>8937</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9509</v>
       </c>
     </row>
     <row r="18">
@@ -1368,6 +1477,9 @@
       </c>
       <c r="I18" t="n">
         <v>9074</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9684</v>
       </c>
     </row>
     <row r="19">
@@ -1387,6 +1499,9 @@
       </c>
       <c r="I19" t="n">
         <v>9213</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9860</v>
       </c>
     </row>
     <row r="20">
@@ -1404,6 +1519,9 @@
       </c>
       <c r="I20" t="n">
         <v>9347</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10031</v>
       </c>
     </row>
     <row r="21">
@@ -1420,6 +1538,25 @@
       <c r="I21" t="n">
         <v>9477</v>
       </c>
+      <c r="J21" t="n">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="n">
+        <v>10370</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
   </si>
 </sst>
 </file>
@@ -447,6 +450,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -465,6 +471,7 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -485,6 +492,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -507,6 +515,7 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -531,6 +540,7 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -557,6 +567,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -585,13 +596,14 @@
       </c>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>104093</v>
+        <v>105332</v>
       </c>
       <c r="C8" t="n">
         <v>107940</v>
@@ -615,12 +627,15 @@
         <v>104242</v>
       </c>
       <c r="J8"/>
+      <c r="K8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>111724</v>
+      </c>
       <c r="C9" t="n">
         <v>112466</v>
       </c>
@@ -645,6 +660,7 @@
       <c r="J9" t="n">
         <v>109310</v>
       </c>
+      <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -675,6 +691,9 @@
       <c r="J10" t="n">
         <v>114018</v>
       </c>
+      <c r="K10" t="n">
+        <v>117729</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -705,6 +724,9 @@
       <c r="J11" t="n">
         <v>118270</v>
       </c>
+      <c r="K11" t="n">
+        <v>123111</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -735,6 +757,9 @@
       <c r="J12" t="n">
         <v>122517</v>
       </c>
+      <c r="K12" t="n">
+        <v>128480</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -765,6 +790,9 @@
       <c r="J13" t="n">
         <v>126648</v>
       </c>
+      <c r="K13" t="n">
+        <v>133973</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -795,6 +823,9 @@
       <c r="J14" t="n">
         <v>130189</v>
       </c>
+      <c r="K14" t="n">
+        <v>138699</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -824,6 +855,9 @@
       </c>
       <c r="J15" t="n">
         <v>133617</v>
+      </c>
+      <c r="K15" t="n">
+        <v>143605</v>
       </c>
     </row>
     <row r="16">
@@ -852,6 +886,9 @@
       </c>
       <c r="J16" t="n">
         <v>136767</v>
+      </c>
+      <c r="K16" t="n">
+        <v>147674</v>
       </c>
     </row>
     <row r="17">
@@ -878,6 +915,9 @@
       </c>
       <c r="J17" t="n">
         <v>139711</v>
+      </c>
+      <c r="K17" t="n">
+        <v>151859</v>
       </c>
     </row>
     <row r="18">
@@ -902,6 +942,9 @@
       </c>
       <c r="J18" t="n">
         <v>142375</v>
+      </c>
+      <c r="K18" t="n">
+        <v>155466</v>
       </c>
     </row>
     <row r="19">
@@ -924,6 +967,9 @@
       </c>
       <c r="J19" t="n">
         <v>145047</v>
+      </c>
+      <c r="K19" t="n">
+        <v>159157</v>
       </c>
     </row>
     <row r="20">
@@ -944,6 +990,9 @@
       </c>
       <c r="J20" t="n">
         <v>147641</v>
+      </c>
+      <c r="K20" t="n">
+        <v>162941</v>
       </c>
     </row>
     <row r="21">
@@ -962,6 +1011,9 @@
       </c>
       <c r="J21" t="n">
         <v>150171</v>
+      </c>
+      <c r="K21" t="n">
+        <v>166282</v>
       </c>
     </row>
     <row r="22">
@@ -978,6 +1030,26 @@
       <c r="I22"/>
       <c r="J22" t="n">
         <v>152825</v>
+      </c>
+      <c r="K22" t="n">
+        <v>169345</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" t="n">
+        <v>172215</v>
       </c>
     </row>
   </sheetData>
@@ -1025,6 +1097,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1043,6 +1118,7 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1063,6 +1139,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1085,6 +1162,7 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1109,6 +1187,7 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1135,6 +1214,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1163,13 +1243,14 @@
       </c>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>7221</v>
+        <v>7293</v>
       </c>
       <c r="C8" t="n">
         <v>7309</v>
@@ -1193,12 +1274,15 @@
         <v>7048</v>
       </c>
       <c r="J8"/>
+      <c r="K8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>7812</v>
+      </c>
       <c r="C9" t="n">
         <v>7536</v>
       </c>
@@ -1223,6 +1307,7 @@
       <c r="J9" t="n">
         <v>7496</v>
       </c>
+      <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1253,6 +1338,9 @@
       <c r="J10" t="n">
         <v>7809</v>
       </c>
+      <c r="K10" t="n">
+        <v>8205</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1283,6 +1371,9 @@
       <c r="J11" t="n">
         <v>8090</v>
       </c>
+      <c r="K11" t="n">
+        <v>8600</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1313,6 +1404,9 @@
       <c r="J12" t="n">
         <v>8371</v>
       </c>
+      <c r="K12" t="n">
+        <v>8996</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1343,6 +1437,9 @@
       <c r="J13" t="n">
         <v>8645</v>
       </c>
+      <c r="K13" t="n">
+        <v>9402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1373,6 +1470,9 @@
       <c r="J14" t="n">
         <v>8880</v>
       </c>
+      <c r="K14" t="n">
+        <v>9751</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1402,6 +1502,9 @@
       </c>
       <c r="J15" t="n">
         <v>9107</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10115</v>
       </c>
     </row>
     <row r="16">
@@ -1430,6 +1533,9 @@
       </c>
       <c r="J16" t="n">
         <v>9314</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10416</v>
       </c>
     </row>
     <row r="17">
@@ -1456,6 +1562,9 @@
       </c>
       <c r="J17" t="n">
         <v>9509</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10727</v>
       </c>
     </row>
     <row r="18">
@@ -1480,6 +1589,9 @@
       </c>
       <c r="J18" t="n">
         <v>9684</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10995</v>
       </c>
     </row>
     <row r="19">
@@ -1502,6 +1614,9 @@
       </c>
       <c r="J19" t="n">
         <v>9860</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11270</v>
       </c>
     </row>
     <row r="20">
@@ -1522,6 +1637,9 @@
       </c>
       <c r="J20" t="n">
         <v>10031</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11551</v>
       </c>
     </row>
     <row r="21">
@@ -1540,6 +1658,9 @@
       </c>
       <c r="J21" t="n">
         <v>10196</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11800</v>
       </c>
     </row>
     <row r="22">
@@ -1557,6 +1678,26 @@
       <c r="J22" t="n">
         <v>10370</v>
       </c>
+      <c r="K22" t="n">
+        <v>12030</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" t="n">
+        <v>12245</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-23</t>
   </si>
 </sst>
 </file>
@@ -453,6 +456,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -472,6 +478,7 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -493,6 +500,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -516,6 +524,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -541,6 +550,7 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -568,6 +578,7 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -597,13 +608,14 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>105332</v>
+        <v>105452</v>
       </c>
       <c r="C8" t="n">
         <v>107940</v>
@@ -628,13 +640,14 @@
       </c>
       <c r="J8"/>
       <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>111724</v>
+        <v>111621</v>
       </c>
       <c r="C9" t="n">
         <v>112466</v>
@@ -661,12 +674,15 @@
         <v>109310</v>
       </c>
       <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>118229</v>
+      </c>
       <c r="C10" t="n">
         <v>116030</v>
       </c>
@@ -694,6 +710,7 @@
       <c r="K10" t="n">
         <v>117729</v>
       </c>
+      <c r="L10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -727,6 +744,9 @@
       <c r="K11" t="n">
         <v>123111</v>
       </c>
+      <c r="L11" t="n">
+        <v>125257</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -760,6 +780,9 @@
       <c r="K12" t="n">
         <v>128480</v>
       </c>
+      <c r="L12" t="n">
+        <v>132542</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -793,6 +816,9 @@
       <c r="K13" t="n">
         <v>133973</v>
       </c>
+      <c r="L13" t="n">
+        <v>140621</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -826,6 +852,9 @@
       <c r="K14" t="n">
         <v>138699</v>
       </c>
+      <c r="L14" t="n">
+        <v>148182</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -858,6 +887,9 @@
       </c>
       <c r="K15" t="n">
         <v>143605</v>
+      </c>
+      <c r="L15" t="n">
+        <v>155888</v>
       </c>
     </row>
     <row r="16">
@@ -889,6 +921,9 @@
       </c>
       <c r="K16" t="n">
         <v>147674</v>
+      </c>
+      <c r="L16" t="n">
+        <v>163071</v>
       </c>
     </row>
     <row r="17">
@@ -918,6 +953,9 @@
       </c>
       <c r="K17" t="n">
         <v>151859</v>
+      </c>
+      <c r="L17" t="n">
+        <v>170706</v>
       </c>
     </row>
     <row r="18">
@@ -945,6 +983,9 @@
       </c>
       <c r="K18" t="n">
         <v>155466</v>
+      </c>
+      <c r="L18" t="n">
+        <v>178303</v>
       </c>
     </row>
     <row r="19">
@@ -970,6 +1011,9 @@
       </c>
       <c r="K19" t="n">
         <v>159157</v>
+      </c>
+      <c r="L19" t="n">
+        <v>186206</v>
       </c>
     </row>
     <row r="20">
@@ -993,6 +1037,9 @@
       </c>
       <c r="K20" t="n">
         <v>162941</v>
+      </c>
+      <c r="L20" t="n">
+        <v>193578</v>
       </c>
     </row>
     <row r="21">
@@ -1014,6 +1061,9 @@
       </c>
       <c r="K21" t="n">
         <v>166282</v>
+      </c>
+      <c r="L21" t="n">
+        <v>202107</v>
       </c>
     </row>
     <row r="22">
@@ -1033,6 +1083,9 @@
       </c>
       <c r="K22" t="n">
         <v>169345</v>
+      </c>
+      <c r="L22" t="n">
+        <v>209887</v>
       </c>
     </row>
     <row r="23">
@@ -1050,6 +1103,27 @@
       <c r="J23"/>
       <c r="K23" t="n">
         <v>172215</v>
+      </c>
+      <c r="L23" t="n">
+        <v>217584</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="n">
+        <v>224928</v>
       </c>
     </row>
   </sheetData>
@@ -1100,6 +1174,9 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1119,6 +1196,7 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1140,6 +1218,7 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1163,6 +1242,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1188,6 +1268,7 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1215,6 +1296,7 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1244,13 +1326,14 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>7293</v>
+        <v>7296</v>
       </c>
       <c r="C8" t="n">
         <v>7309</v>
@@ -1275,13 +1358,14 @@
       </c>
       <c r="J8"/>
       <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>7812</v>
+        <v>7797</v>
       </c>
       <c r="C9" t="n">
         <v>7536</v>
@@ -1308,12 +1392,15 @@
         <v>7496</v>
       </c>
       <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10"/>
+      <c r="B10" t="n">
+        <v>8270</v>
+      </c>
       <c r="C10" t="n">
         <v>7679</v>
       </c>
@@ -1341,6 +1428,7 @@
       <c r="K10" t="n">
         <v>8205</v>
       </c>
+      <c r="L10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1374,6 +1462,9 @@
       <c r="K11" t="n">
         <v>8600</v>
       </c>
+      <c r="L11" t="n">
+        <v>8776</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1407,6 +1498,9 @@
       <c r="K12" t="n">
         <v>8996</v>
       </c>
+      <c r="L12" t="n">
+        <v>9301</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1440,6 +1534,9 @@
       <c r="K13" t="n">
         <v>9402</v>
       </c>
+      <c r="L13" t="n">
+        <v>9881</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1473,6 +1570,9 @@
       <c r="K14" t="n">
         <v>9751</v>
       </c>
+      <c r="L14" t="n">
+        <v>10395</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1505,6 +1605,9 @@
       </c>
       <c r="K15" t="n">
         <v>10115</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10927</v>
       </c>
     </row>
     <row r="16">
@@ -1536,6 +1639,9 @@
       </c>
       <c r="K16" t="n">
         <v>10416</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11383</v>
       </c>
     </row>
     <row r="17">
@@ -1565,6 +1671,9 @@
       </c>
       <c r="K17" t="n">
         <v>10727</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11886</v>
       </c>
     </row>
     <row r="18">
@@ -1592,6 +1701,9 @@
       </c>
       <c r="K18" t="n">
         <v>10995</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12362</v>
       </c>
     </row>
     <row r="19">
@@ -1617,6 +1729,9 @@
       </c>
       <c r="K19" t="n">
         <v>11270</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12859</v>
       </c>
     </row>
     <row r="20">
@@ -1640,6 +1755,9 @@
       </c>
       <c r="K20" t="n">
         <v>11551</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13325</v>
       </c>
     </row>
     <row r="21">
@@ -1661,6 +1779,9 @@
       </c>
       <c r="K21" t="n">
         <v>11800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13851</v>
       </c>
     </row>
     <row r="22">
@@ -1680,6 +1801,9 @@
       </c>
       <c r="K22" t="n">
         <v>12030</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14275</v>
       </c>
     </row>
     <row r="23">
@@ -1698,6 +1822,27 @@
       <c r="K23" t="n">
         <v>12245</v>
       </c>
+      <c r="L23" t="n">
+        <v>14669</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="n">
+        <v>14996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-24</t>
   </si>
 </sst>
 </file>
@@ -459,6 +462,9 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -479,6 +485,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -501,6 +508,7 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -525,6 +533,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -551,6 +560,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -579,6 +589,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -609,6 +620,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -641,13 +653,14 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>111621</v>
+        <v>111673</v>
       </c>
       <c r="C9" t="n">
         <v>112466</v>
@@ -675,13 +688,14 @@
       </c>
       <c r="K9"/>
       <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>118229</v>
+        <v>119156</v>
       </c>
       <c r="C10" t="n">
         <v>116030</v>
@@ -711,12 +725,15 @@
         <v>117729</v>
       </c>
       <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>123303</v>
+      </c>
       <c r="C11" t="n">
         <v>119795</v>
       </c>
@@ -747,6 +764,7 @@
       <c r="L11" t="n">
         <v>125257</v>
       </c>
+      <c r="M11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -783,6 +801,9 @@
       <c r="L12" t="n">
         <v>132542</v>
       </c>
+      <c r="M12" t="n">
+        <v>129834</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -819,6 +840,9 @@
       <c r="L13" t="n">
         <v>140621</v>
       </c>
+      <c r="M13" t="n">
+        <v>136354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -855,6 +879,9 @@
       <c r="L14" t="n">
         <v>148182</v>
       </c>
+      <c r="M14" t="n">
+        <v>142297</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -890,6 +917,9 @@
       </c>
       <c r="L15" t="n">
         <v>155888</v>
+      </c>
+      <c r="M15" t="n">
+        <v>148175</v>
       </c>
     </row>
     <row r="16">
@@ -924,6 +954,9 @@
       </c>
       <c r="L16" t="n">
         <v>163071</v>
+      </c>
+      <c r="M16" t="n">
+        <v>153810</v>
       </c>
     </row>
     <row r="17">
@@ -956,6 +989,9 @@
       </c>
       <c r="L17" t="n">
         <v>170706</v>
+      </c>
+      <c r="M17" t="n">
+        <v>159567</v>
       </c>
     </row>
     <row r="18">
@@ -986,6 +1022,9 @@
       </c>
       <c r="L18" t="n">
         <v>178303</v>
+      </c>
+      <c r="M18" t="n">
+        <v>165024</v>
       </c>
     </row>
     <row r="19">
@@ -1014,6 +1053,9 @@
       </c>
       <c r="L19" t="n">
         <v>186206</v>
+      </c>
+      <c r="M19" t="n">
+        <v>170418</v>
       </c>
     </row>
     <row r="20">
@@ -1040,6 +1082,9 @@
       </c>
       <c r="L20" t="n">
         <v>193578</v>
+      </c>
+      <c r="M20" t="n">
+        <v>175582</v>
       </c>
     </row>
     <row r="21">
@@ -1064,6 +1109,9 @@
       </c>
       <c r="L21" t="n">
         <v>202107</v>
+      </c>
+      <c r="M21" t="n">
+        <v>180718</v>
       </c>
     </row>
     <row r="22">
@@ -1086,6 +1134,9 @@
       </c>
       <c r="L22" t="n">
         <v>209887</v>
+      </c>
+      <c r="M22" t="n">
+        <v>185270</v>
       </c>
     </row>
     <row r="23">
@@ -1106,6 +1157,9 @@
       </c>
       <c r="L23" t="n">
         <v>217584</v>
+      </c>
+      <c r="M23" t="n">
+        <v>189608</v>
       </c>
     </row>
     <row r="24">
@@ -1124,6 +1178,28 @@
       <c r="K24"/>
       <c r="L24" t="n">
         <v>224928</v>
+      </c>
+      <c r="M24" t="n">
+        <v>193611</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>197436</v>
       </c>
     </row>
   </sheetData>
@@ -1177,6 +1253,9 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1197,6 +1276,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
+      <c r="M2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1219,6 +1299,7 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1243,6 +1324,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
+      <c r="M4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1269,6 +1351,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
+      <c r="M5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1297,6 +1380,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
+      <c r="M6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1327,6 +1411,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
+      <c r="M7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1359,6 +1444,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
+      <c r="M8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1393,13 +1479,14 @@
       </c>
       <c r="K9"/>
       <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>8270</v>
+        <v>8319</v>
       </c>
       <c r="C10" t="n">
         <v>7679</v>
@@ -1429,12 +1516,15 @@
         <v>8205</v>
       </c>
       <c r="L10"/>
+      <c r="M10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11"/>
+      <c r="B11" t="n">
+        <v>8597</v>
+      </c>
       <c r="C11" t="n">
         <v>7920</v>
       </c>
@@ -1465,6 +1555,7 @@
       <c r="L11" t="n">
         <v>8776</v>
       </c>
+      <c r="M11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1501,6 +1592,9 @@
       <c r="L12" t="n">
         <v>9301</v>
       </c>
+      <c r="M12" t="n">
+        <v>9142</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1537,6 +1631,9 @@
       <c r="L13" t="n">
         <v>9881</v>
       </c>
+      <c r="M13" t="n">
+        <v>9647</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1573,6 +1670,9 @@
       <c r="L14" t="n">
         <v>10395</v>
       </c>
+      <c r="M14" t="n">
+        <v>10109</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1608,6 +1708,9 @@
       </c>
       <c r="L15" t="n">
         <v>10927</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10568</v>
       </c>
     </row>
     <row r="16">
@@ -1642,6 +1745,9 @@
       </c>
       <c r="L16" t="n">
         <v>11383</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11010</v>
       </c>
     </row>
     <row r="17">
@@ -1674,6 +1780,9 @@
       </c>
       <c r="L17" t="n">
         <v>11886</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11464</v>
       </c>
     </row>
     <row r="18">
@@ -1704,6 +1813,9 @@
       </c>
       <c r="L18" t="n">
         <v>12362</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11895</v>
       </c>
     </row>
     <row r="19">
@@ -1732,6 +1844,9 @@
       </c>
       <c r="L19" t="n">
         <v>12859</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12323</v>
       </c>
     </row>
     <row r="20">
@@ -1758,6 +1873,9 @@
       </c>
       <c r="L20" t="n">
         <v>13325</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12734</v>
       </c>
     </row>
     <row r="21">
@@ -1782,6 +1900,9 @@
       </c>
       <c r="L21" t="n">
         <v>13851</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13141</v>
       </c>
     </row>
     <row r="22">
@@ -1804,6 +1925,9 @@
       </c>
       <c r="L22" t="n">
         <v>14275</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13504</v>
       </c>
     </row>
     <row r="23">
@@ -1824,6 +1948,9 @@
       </c>
       <c r="L23" t="n">
         <v>14669</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13850</v>
       </c>
     </row>
     <row r="24">
@@ -1843,6 +1970,28 @@
       <c r="L24" t="n">
         <v>14996</v>
       </c>
+      <c r="M24" t="n">
+        <v>14169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>14476</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25</t>
   </si>
 </sst>
 </file>
@@ -465,6 +468,9 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -486,6 +492,7 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -509,6 +516,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -534,6 +542,7 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -561,6 +570,7 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -590,6 +600,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -621,6 +632,7 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -654,6 +666,7 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -689,6 +702,7 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -726,13 +740,14 @@
       </c>
       <c r="L10"/>
       <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>123303</v>
+        <v>123430</v>
       </c>
       <c r="C11" t="n">
         <v>119795</v>
@@ -765,12 +780,15 @@
         <v>125257</v>
       </c>
       <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>126273</v>
+      </c>
       <c r="C12" t="n">
         <v>123543</v>
       </c>
@@ -804,6 +822,7 @@
       <c r="M12" t="n">
         <v>129834</v>
       </c>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -843,6 +862,9 @@
       <c r="M13" t="n">
         <v>136354</v>
       </c>
+      <c r="N13" t="n">
+        <v>131791</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -882,6 +904,9 @@
       <c r="M14" t="n">
         <v>142297</v>
       </c>
+      <c r="N14" t="n">
+        <v>136695</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -920,6 +945,9 @@
       </c>
       <c r="M15" t="n">
         <v>148175</v>
+      </c>
+      <c r="N15" t="n">
+        <v>141470</v>
       </c>
     </row>
     <row r="16">
@@ -957,6 +985,9 @@
       </c>
       <c r="M16" t="n">
         <v>153810</v>
+      </c>
+      <c r="N16" t="n">
+        <v>146381</v>
       </c>
     </row>
     <row r="17">
@@ -992,6 +1023,9 @@
       </c>
       <c r="M17" t="n">
         <v>159567</v>
+      </c>
+      <c r="N17" t="n">
+        <v>151081</v>
       </c>
     </row>
     <row r="18">
@@ -1025,6 +1059,9 @@
       </c>
       <c r="M18" t="n">
         <v>165024</v>
+      </c>
+      <c r="N18" t="n">
+        <v>155460</v>
       </c>
     </row>
     <row r="19">
@@ -1056,6 +1093,9 @@
       </c>
       <c r="M19" t="n">
         <v>170418</v>
+      </c>
+      <c r="N19" t="n">
+        <v>159632</v>
       </c>
     </row>
     <row r="20">
@@ -1085,6 +1125,9 @@
       </c>
       <c r="M20" t="n">
         <v>175582</v>
+      </c>
+      <c r="N20" t="n">
+        <v>163885</v>
       </c>
     </row>
     <row r="21">
@@ -1112,6 +1155,9 @@
       </c>
       <c r="M21" t="n">
         <v>180718</v>
+      </c>
+      <c r="N21" t="n">
+        <v>167483</v>
       </c>
     </row>
     <row r="22">
@@ -1137,6 +1183,9 @@
       </c>
       <c r="M22" t="n">
         <v>185270</v>
+      </c>
+      <c r="N22" t="n">
+        <v>170712</v>
       </c>
     </row>
     <row r="23">
@@ -1160,6 +1209,9 @@
       </c>
       <c r="M23" t="n">
         <v>189608</v>
+      </c>
+      <c r="N23" t="n">
+        <v>173787</v>
       </c>
     </row>
     <row r="24">
@@ -1181,6 +1233,9 @@
       </c>
       <c r="M24" t="n">
         <v>193611</v>
+      </c>
+      <c r="N24" t="n">
+        <v>176563</v>
       </c>
     </row>
     <row r="25">
@@ -1200,6 +1255,29 @@
       <c r="L25"/>
       <c r="M25" t="n">
         <v>197436</v>
+      </c>
+      <c r="N25" t="n">
+        <v>179283</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="n">
+        <v>181806</v>
       </c>
     </row>
   </sheetData>
@@ -1256,6 +1334,9 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1277,6 +1358,7 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1300,6 +1382,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1325,6 +1408,7 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1352,6 +1436,7 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1381,6 +1466,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1412,6 +1498,7 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1445,6 +1532,7 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1480,6 +1568,7 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1517,13 +1606,14 @@
       </c>
       <c r="L10"/>
       <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>8597</v>
+        <v>8622</v>
       </c>
       <c r="C11" t="n">
         <v>7920</v>
@@ -1556,12 +1646,15 @@
         <v>8776</v>
       </c>
       <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12"/>
+      <c r="B12" t="n">
+        <v>8877</v>
+      </c>
       <c r="C12" t="n">
         <v>8125</v>
       </c>
@@ -1595,6 +1688,7 @@
       <c r="M12" t="n">
         <v>9142</v>
       </c>
+      <c r="N12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1634,6 +1728,9 @@
       <c r="M13" t="n">
         <v>9647</v>
       </c>
+      <c r="N13" t="n">
+        <v>9269</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1673,6 +1770,9 @@
       <c r="M14" t="n">
         <v>10109</v>
       </c>
+      <c r="N14" t="n">
+        <v>9636</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1711,6 +1811,9 @@
       </c>
       <c r="M15" t="n">
         <v>10568</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9994</v>
       </c>
     </row>
     <row r="16">
@@ -1748,6 +1851,9 @@
       </c>
       <c r="M16" t="n">
         <v>11010</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10366</v>
       </c>
     </row>
     <row r="17">
@@ -1783,6 +1889,9 @@
       </c>
       <c r="M17" t="n">
         <v>11464</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10721</v>
       </c>
     </row>
     <row r="18">
@@ -1816,6 +1925,9 @@
       </c>
       <c r="M18" t="n">
         <v>11895</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11053</v>
       </c>
     </row>
     <row r="19">
@@ -1847,6 +1959,9 @@
       </c>
       <c r="M19" t="n">
         <v>12323</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11369</v>
       </c>
     </row>
     <row r="20">
@@ -1876,6 +1991,9 @@
       </c>
       <c r="M20" t="n">
         <v>12734</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11694</v>
       </c>
     </row>
     <row r="21">
@@ -1903,6 +2021,9 @@
       </c>
       <c r="M21" t="n">
         <v>13141</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11964</v>
       </c>
     </row>
     <row r="22">
@@ -1928,6 +2049,9 @@
       </c>
       <c r="M22" t="n">
         <v>13504</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12208</v>
       </c>
     </row>
     <row r="23">
@@ -1951,6 +2075,9 @@
       </c>
       <c r="M23" t="n">
         <v>13850</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12441</v>
       </c>
     </row>
     <row r="24">
@@ -1972,6 +2099,9 @@
       </c>
       <c r="M24" t="n">
         <v>14169</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12652</v>
       </c>
     </row>
     <row r="25">
@@ -1992,6 +2122,29 @@
       <c r="M25" t="n">
         <v>14476</v>
       </c>
+      <c r="N25" t="n">
+        <v>12859</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="n">
+        <v>13052</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
   </si>
 </sst>
 </file>
@@ -471,6 +474,9 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -493,6 +499,7 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -517,6 +524,7 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -543,6 +551,7 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -571,6 +580,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -601,6 +611,7 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -633,6 +644,7 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -667,6 +679,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
+      <c r="O8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -703,6 +716,7 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -741,13 +755,14 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>123430</v>
+        <v>123571</v>
       </c>
       <c r="C11" t="n">
         <v>119795</v>
@@ -781,13 +796,14 @@
       </c>
       <c r="M11"/>
       <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>126273</v>
+        <v>127105</v>
       </c>
       <c r="C12" t="n">
         <v>123543</v>
@@ -823,12 +839,15 @@
         <v>129834</v>
       </c>
       <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>131567</v>
+      </c>
       <c r="C13" t="n">
         <v>126860</v>
       </c>
@@ -865,6 +884,7 @@
       <c r="N13" t="n">
         <v>131791</v>
       </c>
+      <c r="O13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -907,6 +927,9 @@
       <c r="N14" t="n">
         <v>136695</v>
       </c>
+      <c r="O14" t="n">
+        <v>136483</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -948,6 +971,9 @@
       </c>
       <c r="N15" t="n">
         <v>141470</v>
+      </c>
+      <c r="O15" t="n">
+        <v>141242</v>
       </c>
     </row>
     <row r="16">
@@ -988,6 +1014,9 @@
       </c>
       <c r="N16" t="n">
         <v>146381</v>
+      </c>
+      <c r="O16" t="n">
+        <v>146242</v>
       </c>
     </row>
     <row r="17">
@@ -1026,6 +1055,9 @@
       </c>
       <c r="N17" t="n">
         <v>151081</v>
+      </c>
+      <c r="O17" t="n">
+        <v>150919</v>
       </c>
     </row>
     <row r="18">
@@ -1062,6 +1094,9 @@
       </c>
       <c r="N18" t="n">
         <v>155460</v>
+      </c>
+      <c r="O18" t="n">
+        <v>155255</v>
       </c>
     </row>
     <row r="19">
@@ -1096,6 +1131,9 @@
       </c>
       <c r="N19" t="n">
         <v>159632</v>
+      </c>
+      <c r="O19" t="n">
+        <v>159372</v>
       </c>
     </row>
     <row r="20">
@@ -1128,6 +1166,9 @@
       </c>
       <c r="N20" t="n">
         <v>163885</v>
+      </c>
+      <c r="O20" t="n">
+        <v>163703</v>
       </c>
     </row>
     <row r="21">
@@ -1158,6 +1199,9 @@
       </c>
       <c r="N21" t="n">
         <v>167483</v>
+      </c>
+      <c r="O21" t="n">
+        <v>167109</v>
       </c>
     </row>
     <row r="22">
@@ -1186,6 +1230,9 @@
       </c>
       <c r="N22" t="n">
         <v>170712</v>
+      </c>
+      <c r="O22" t="n">
+        <v>170303</v>
       </c>
     </row>
     <row r="23">
@@ -1212,6 +1259,9 @@
       </c>
       <c r="N23" t="n">
         <v>173787</v>
+      </c>
+      <c r="O23" t="n">
+        <v>173352</v>
       </c>
     </row>
     <row r="24">
@@ -1236,6 +1286,9 @@
       </c>
       <c r="N24" t="n">
         <v>176563</v>
+      </c>
+      <c r="O24" t="n">
+        <v>176080</v>
       </c>
     </row>
     <row r="25">
@@ -1258,6 +1311,9 @@
       </c>
       <c r="N25" t="n">
         <v>179283</v>
+      </c>
+      <c r="O25" t="n">
+        <v>178766</v>
       </c>
     </row>
     <row r="26">
@@ -1278,6 +1334,30 @@
       <c r="M26"/>
       <c r="N26" t="n">
         <v>181806</v>
+      </c>
+      <c r="O26" t="n">
+        <v>181252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" t="n">
+        <v>183963</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1417,9 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1359,6 +1442,7 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
+      <c r="O2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1383,6 +1467,7 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
+      <c r="O3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1409,6 +1494,7 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1437,6 +1523,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
+      <c r="O5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1467,6 +1554,7 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
+      <c r="O6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1499,6 +1587,7 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
+      <c r="O7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1533,6 +1622,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
+      <c r="O8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1569,6 +1659,7 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
+      <c r="O9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1607,13 +1698,14 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
+      <c r="O10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>8622</v>
+        <v>8627</v>
       </c>
       <c r="C11" t="n">
         <v>7920</v>
@@ -1647,13 +1739,14 @@
       </c>
       <c r="M11"/>
       <c r="N11"/>
+      <c r="O11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>8877</v>
+        <v>8934</v>
       </c>
       <c r="C12" t="n">
         <v>8125</v>
@@ -1689,12 +1782,15 @@
         <v>9142</v>
       </c>
       <c r="N12"/>
+      <c r="O12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13"/>
+      <c r="B13" t="n">
+        <v>9426</v>
+      </c>
       <c r="C13" t="n">
         <v>8269</v>
       </c>
@@ -1731,6 +1827,7 @@
       <c r="N13" t="n">
         <v>9269</v>
       </c>
+      <c r="O13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1773,6 +1870,9 @@
       <c r="N14" t="n">
         <v>9636</v>
       </c>
+      <c r="O14" t="n">
+        <v>9730</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1814,6 +1914,9 @@
       </c>
       <c r="N15" t="n">
         <v>9994</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10114</v>
       </c>
     </row>
     <row r="16">
@@ -1854,6 +1957,9 @@
       </c>
       <c r="N16" t="n">
         <v>10366</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10522</v>
       </c>
     </row>
     <row r="17">
@@ -1892,6 +1998,9 @@
       </c>
       <c r="N17" t="n">
         <v>10721</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10905</v>
       </c>
     </row>
     <row r="18">
@@ -1928,6 +2037,9 @@
       </c>
       <c r="N18" t="n">
         <v>11053</v>
+      </c>
+      <c r="O18" t="n">
+        <v>11263</v>
       </c>
     </row>
     <row r="19">
@@ -1962,6 +2074,9 @@
       </c>
       <c r="N19" t="n">
         <v>11369</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11603</v>
       </c>
     </row>
     <row r="20">
@@ -1994,6 +2109,9 @@
       </c>
       <c r="N20" t="n">
         <v>11694</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11962</v>
       </c>
     </row>
     <row r="21">
@@ -2024,6 +2142,9 @@
       </c>
       <c r="N21" t="n">
         <v>11964</v>
+      </c>
+      <c r="O21" t="n">
+        <v>12244</v>
       </c>
     </row>
     <row r="22">
@@ -2052,6 +2173,9 @@
       </c>
       <c r="N22" t="n">
         <v>12208</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12509</v>
       </c>
     </row>
     <row r="23">
@@ -2078,6 +2202,9 @@
       </c>
       <c r="N23" t="n">
         <v>12441</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12763</v>
       </c>
     </row>
     <row r="24">
@@ -2102,6 +2229,9 @@
       </c>
       <c r="N24" t="n">
         <v>12652</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12992</v>
       </c>
     </row>
     <row r="25">
@@ -2124,6 +2254,9 @@
       </c>
       <c r="N25" t="n">
         <v>12859</v>
+      </c>
+      <c r="O25" t="n">
+        <v>13217</v>
       </c>
     </row>
     <row r="26">
@@ -2145,6 +2278,30 @@
       <c r="N26" t="n">
         <v>13052</v>
       </c>
+      <c r="O26" t="n">
+        <v>13426</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" t="n">
+        <v>13654</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
 </sst>
 </file>
@@ -477,6 +480,9 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -500,6 +506,7 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -525,6 +532,7 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
+      <c r="P3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -552,6 +560,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
+      <c r="P4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -581,6 +590,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
+      <c r="P5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -612,6 +622,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -645,6 +656,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
+      <c r="P7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -680,6 +692,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -717,6 +730,7 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -756,6 +770,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -797,13 +812,14 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>127105</v>
+        <v>127101</v>
       </c>
       <c r="C12" t="n">
         <v>123543</v>
@@ -840,13 +856,14 @@
       </c>
       <c r="N12"/>
       <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>131567</v>
+        <v>132804</v>
       </c>
       <c r="C13" t="n">
         <v>126860</v>
@@ -885,12 +902,15 @@
         <v>131791</v>
       </c>
       <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>140442</v>
+      </c>
       <c r="C14" t="n">
         <v>129789</v>
       </c>
@@ -930,6 +950,7 @@
       <c r="O14" t="n">
         <v>136483</v>
       </c>
+      <c r="P14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -974,6 +995,9 @@
       </c>
       <c r="O15" t="n">
         <v>141242</v>
+      </c>
+      <c r="P15" t="n">
+        <v>147434</v>
       </c>
     </row>
     <row r="16">
@@ -1017,6 +1041,9 @@
       </c>
       <c r="O16" t="n">
         <v>146242</v>
+      </c>
+      <c r="P16" t="n">
+        <v>154636</v>
       </c>
     </row>
     <row r="17">
@@ -1058,6 +1085,9 @@
       </c>
       <c r="O17" t="n">
         <v>150919</v>
+      </c>
+      <c r="P17" t="n">
+        <v>163005</v>
       </c>
     </row>
     <row r="18">
@@ -1097,6 +1127,9 @@
       </c>
       <c r="O18" t="n">
         <v>155255</v>
+      </c>
+      <c r="P18" t="n">
+        <v>168720</v>
       </c>
     </row>
     <row r="19">
@@ -1134,6 +1167,9 @@
       </c>
       <c r="O19" t="n">
         <v>159372</v>
+      </c>
+      <c r="P19" t="n">
+        <v>174291</v>
       </c>
     </row>
     <row r="20">
@@ -1169,6 +1205,9 @@
       </c>
       <c r="O20" t="n">
         <v>163703</v>
+      </c>
+      <c r="P20" t="n">
+        <v>183006</v>
       </c>
     </row>
     <row r="21">
@@ -1202,6 +1241,9 @@
       </c>
       <c r="O21" t="n">
         <v>167109</v>
+      </c>
+      <c r="P21" t="n">
+        <v>190145</v>
       </c>
     </row>
     <row r="22">
@@ -1233,6 +1275,9 @@
       </c>
       <c r="O22" t="n">
         <v>170303</v>
+      </c>
+      <c r="P22" t="n">
+        <v>195316</v>
       </c>
     </row>
     <row r="23">
@@ -1262,6 +1307,9 @@
       </c>
       <c r="O23" t="n">
         <v>173352</v>
+      </c>
+      <c r="P23" t="n">
+        <v>201673</v>
       </c>
     </row>
     <row r="24">
@@ -1289,6 +1337,9 @@
       </c>
       <c r="O24" t="n">
         <v>176080</v>
+      </c>
+      <c r="P24" t="n">
+        <v>209801</v>
       </c>
     </row>
     <row r="25">
@@ -1314,6 +1365,9 @@
       </c>
       <c r="O25" t="n">
         <v>178766</v>
+      </c>
+      <c r="P25" t="n">
+        <v>217381</v>
       </c>
     </row>
     <row r="26">
@@ -1337,6 +1391,9 @@
       </c>
       <c r="O26" t="n">
         <v>181252</v>
+      </c>
+      <c r="P26" t="n">
+        <v>221482</v>
       </c>
     </row>
     <row r="27">
@@ -1358,6 +1415,31 @@
       <c r="N27"/>
       <c r="O27" t="n">
         <v>183963</v>
+      </c>
+      <c r="P27" t="n">
+        <v>228211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>231829</v>
       </c>
     </row>
   </sheetData>
@@ -1420,6 +1502,9 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1443,6 +1528,7 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
+      <c r="P2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1468,6 +1554,7 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
+      <c r="P3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1495,6 +1582,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
+      <c r="P4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1524,6 +1612,7 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
+      <c r="P5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1555,6 +1644,7 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
+      <c r="P6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1588,6 +1678,7 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
+      <c r="P7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1623,6 +1714,7 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
+      <c r="P8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1660,6 +1752,7 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
+      <c r="P9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1699,6 +1792,7 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
+      <c r="P10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1740,13 +1834,14 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
+      <c r="P11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>8934</v>
+        <v>8932</v>
       </c>
       <c r="C12" t="n">
         <v>8125</v>
@@ -1783,13 +1878,14 @@
       </c>
       <c r="N12"/>
       <c r="O12"/>
+      <c r="P12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>9426</v>
+        <v>9520</v>
       </c>
       <c r="C13" t="n">
         <v>8269</v>
@@ -1828,12 +1924,15 @@
         <v>9269</v>
       </c>
       <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14"/>
+      <c r="B14" t="n">
+        <v>10039</v>
+      </c>
       <c r="C14" t="n">
         <v>8450</v>
       </c>
@@ -1873,6 +1972,7 @@
       <c r="O14" t="n">
         <v>9730</v>
       </c>
+      <c r="P14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1917,6 +2017,9 @@
       </c>
       <c r="O15" t="n">
         <v>10114</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10695</v>
       </c>
     </row>
     <row r="16">
@@ -1960,6 +2063,9 @@
       </c>
       <c r="O16" t="n">
         <v>10522</v>
+      </c>
+      <c r="P16" t="n">
+        <v>11357</v>
       </c>
     </row>
     <row r="17">
@@ -2001,6 +2107,9 @@
       </c>
       <c r="O17" t="n">
         <v>10905</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12031</v>
       </c>
     </row>
     <row r="18">
@@ -2040,6 +2149,9 @@
       </c>
       <c r="O18" t="n">
         <v>11263</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12474</v>
       </c>
     </row>
     <row r="19">
@@ -2077,6 +2189,9 @@
       </c>
       <c r="O19" t="n">
         <v>11603</v>
+      </c>
+      <c r="P19" t="n">
+        <v>13137</v>
       </c>
     </row>
     <row r="20">
@@ -2112,6 +2227,9 @@
       </c>
       <c r="O20" t="n">
         <v>11962</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13776</v>
       </c>
     </row>
     <row r="21">
@@ -2145,6 +2263,9 @@
       </c>
       <c r="O21" t="n">
         <v>12244</v>
+      </c>
+      <c r="P21" t="n">
+        <v>14558</v>
       </c>
     </row>
     <row r="22">
@@ -2176,6 +2297,9 @@
       </c>
       <c r="O22" t="n">
         <v>12509</v>
+      </c>
+      <c r="P22" t="n">
+        <v>15103</v>
       </c>
     </row>
     <row r="23">
@@ -2205,6 +2329,9 @@
       </c>
       <c r="O23" t="n">
         <v>12763</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15703</v>
       </c>
     </row>
     <row r="24">
@@ -2232,6 +2359,9 @@
       </c>
       <c r="O24" t="n">
         <v>12992</v>
+      </c>
+      <c r="P24" t="n">
+        <v>16369</v>
       </c>
     </row>
     <row r="25">
@@ -2257,6 +2387,9 @@
       </c>
       <c r="O25" t="n">
         <v>13217</v>
+      </c>
+      <c r="P25" t="n">
+        <v>17059</v>
       </c>
     </row>
     <row r="26">
@@ -2280,6 +2413,9 @@
       </c>
       <c r="O26" t="n">
         <v>13426</v>
+      </c>
+      <c r="P26" t="n">
+        <v>17673</v>
       </c>
     </row>
     <row r="27">
@@ -2302,6 +2438,31 @@
       <c r="O27" t="n">
         <v>13654</v>
       </c>
+      <c r="P27" t="n">
+        <v>18092</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>18795</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -483,6 +486,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -507,6 +513,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -533,6 +540,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -561,6 +569,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -591,6 +600,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -623,6 +633,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -657,6 +668,7 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -693,6 +705,7 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -731,6 +744,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -771,6 +785,7 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -813,6 +828,7 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -857,6 +873,7 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -903,13 +920,14 @@
       </c>
       <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>140442</v>
+        <v>140307</v>
       </c>
       <c r="C14" t="n">
         <v>129789</v>
@@ -951,12 +969,15 @@
         <v>136483</v>
       </c>
       <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>149163</v>
+      </c>
       <c r="C15" t="n">
         <v>132469</v>
       </c>
@@ -999,6 +1020,7 @@
       <c r="P15" t="n">
         <v>147434</v>
       </c>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1044,6 +1066,9 @@
       </c>
       <c r="P16" t="n">
         <v>154636</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>156601</v>
       </c>
     </row>
     <row r="17">
@@ -1088,6 +1113,9 @@
       </c>
       <c r="P17" t="n">
         <v>163005</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>164144</v>
       </c>
     </row>
     <row r="18">
@@ -1130,6 +1158,9 @@
       </c>
       <c r="P18" t="n">
         <v>168720</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>169675</v>
       </c>
     </row>
     <row r="19">
@@ -1170,6 +1201,9 @@
       </c>
       <c r="P19" t="n">
         <v>174291</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>176210</v>
       </c>
     </row>
     <row r="20">
@@ -1208,6 +1242,9 @@
       </c>
       <c r="P20" t="n">
         <v>183006</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>183561</v>
       </c>
     </row>
     <row r="21">
@@ -1244,6 +1281,9 @@
       </c>
       <c r="P21" t="n">
         <v>190145</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>190850</v>
       </c>
     </row>
     <row r="22">
@@ -1278,6 +1318,9 @@
       </c>
       <c r="P22" t="n">
         <v>195316</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>196955</v>
       </c>
     </row>
     <row r="23">
@@ -1310,6 +1353,9 @@
       </c>
       <c r="P23" t="n">
         <v>201673</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>203460</v>
       </c>
     </row>
     <row r="24">
@@ -1340,6 +1386,9 @@
       </c>
       <c r="P24" t="n">
         <v>209801</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>210361</v>
       </c>
     </row>
     <row r="25">
@@ -1368,6 +1417,9 @@
       </c>
       <c r="P25" t="n">
         <v>217381</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>217295</v>
       </c>
     </row>
     <row r="26">
@@ -1394,6 +1446,9 @@
       </c>
       <c r="P26" t="n">
         <v>221482</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>223127</v>
       </c>
     </row>
     <row r="27">
@@ -1418,6 +1473,9 @@
       </c>
       <c r="P27" t="n">
         <v>228211</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>228721</v>
       </c>
     </row>
     <row r="28">
@@ -1440,6 +1498,32 @@
       <c r="O28"/>
       <c r="P28" t="n">
         <v>231829</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>234358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="n">
+        <v>239547</v>
       </c>
     </row>
   </sheetData>
@@ -1505,6 +1589,9 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1529,6 +1616,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1555,6 +1643,7 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1583,6 +1672,7 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1613,6 +1703,7 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1645,6 +1736,7 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1679,6 +1771,7 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1715,6 +1808,7 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1753,6 +1847,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1793,6 +1888,7 @@
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1835,6 +1931,7 @@
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1879,6 +1976,7 @@
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1925,13 +2023,14 @@
       </c>
       <c r="O13"/>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>10039</v>
+        <v>10047</v>
       </c>
       <c r="C14" t="n">
         <v>8450</v>
@@ -1973,12 +2072,15 @@
         <v>9730</v>
       </c>
       <c r="P14"/>
+      <c r="Q14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15"/>
+      <c r="B15" t="n">
+        <v>10634</v>
+      </c>
       <c r="C15" t="n">
         <v>8565</v>
       </c>
@@ -2021,6 +2123,7 @@
       <c r="P15" t="n">
         <v>10695</v>
       </c>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2066,6 +2169,9 @@
       </c>
       <c r="P16" t="n">
         <v>11357</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11208</v>
       </c>
     </row>
     <row r="17">
@@ -2110,6 +2216,9 @@
       </c>
       <c r="P17" t="n">
         <v>12031</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11888</v>
       </c>
     </row>
     <row r="18">
@@ -2152,6 +2261,9 @@
       </c>
       <c r="P18" t="n">
         <v>12474</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12442</v>
       </c>
     </row>
     <row r="19">
@@ -2192,6 +2304,9 @@
       </c>
       <c r="P19" t="n">
         <v>13137</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13298</v>
       </c>
     </row>
     <row r="20">
@@ -2230,6 +2345,9 @@
       </c>
       <c r="P20" t="n">
         <v>13776</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14039</v>
       </c>
     </row>
     <row r="21">
@@ -2266,6 +2384,9 @@
       </c>
       <c r="P21" t="n">
         <v>14558</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14700</v>
       </c>
     </row>
     <row r="22">
@@ -2300,6 +2421,9 @@
       </c>
       <c r="P22" t="n">
         <v>15103</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15308</v>
       </c>
     </row>
     <row r="23">
@@ -2332,6 +2456,9 @@
       </c>
       <c r="P23" t="n">
         <v>15703</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>16044</v>
       </c>
     </row>
     <row r="24">
@@ -2362,6 +2489,9 @@
       </c>
       <c r="P24" t="n">
         <v>16369</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>16707</v>
       </c>
     </row>
     <row r="25">
@@ -2390,6 +2520,9 @@
       </c>
       <c r="P25" t="n">
         <v>17059</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>17601</v>
       </c>
     </row>
     <row r="26">
@@ -2416,6 +2549,9 @@
       </c>
       <c r="P26" t="n">
         <v>17673</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>18272</v>
       </c>
     </row>
     <row r="27">
@@ -2440,6 +2576,9 @@
       </c>
       <c r="P27" t="n">
         <v>18092</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>18652</v>
       </c>
     </row>
     <row r="28">
@@ -2463,6 +2602,32 @@
       <c r="P28" t="n">
         <v>18795</v>
       </c>
+      <c r="Q28" t="n">
+        <v>19427</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" t="n">
+        <v>19936</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
   </si>
 </sst>
 </file>
@@ -489,6 +492,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -514,6 +520,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -541,6 +548,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -570,6 +578,7 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -601,6 +610,7 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -634,6 +644,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -669,6 +680,7 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -706,6 +718,7 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -745,6 +758,7 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -786,13 +800,14 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>123571</v>
+        <v>123573</v>
       </c>
       <c r="C11" t="n">
         <v>119795</v>
@@ -829,6 +844,7 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -874,6 +890,7 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -921,6 +938,7 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -970,13 +988,14 @@
       </c>
       <c r="P14"/>
       <c r="Q14"/>
+      <c r="R14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>149163</v>
+        <v>149202</v>
       </c>
       <c r="C15" t="n">
         <v>132469</v>
@@ -1021,12 +1040,15 @@
         <v>147434</v>
       </c>
       <c r="Q15"/>
+      <c r="R15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>157866</v>
+      </c>
       <c r="C16"/>
       <c r="D16" t="n">
         <v>132318</v>
@@ -1070,6 +1092,7 @@
       <c r="Q16" t="n">
         <v>156601</v>
       </c>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1116,6 +1139,9 @@
       </c>
       <c r="Q17" t="n">
         <v>164144</v>
+      </c>
+      <c r="R17" t="n">
+        <v>165634</v>
       </c>
     </row>
     <row r="18">
@@ -1161,6 +1187,9 @@
       </c>
       <c r="Q18" t="n">
         <v>169675</v>
+      </c>
+      <c r="R18" t="n">
+        <v>170757</v>
       </c>
     </row>
     <row r="19">
@@ -1204,6 +1233,9 @@
       </c>
       <c r="Q19" t="n">
         <v>176210</v>
+      </c>
+      <c r="R19" t="n">
+        <v>178512</v>
       </c>
     </row>
     <row r="20">
@@ -1245,6 +1277,9 @@
       </c>
       <c r="Q20" t="n">
         <v>183561</v>
+      </c>
+      <c r="R20" t="n">
+        <v>186141</v>
       </c>
     </row>
     <row r="21">
@@ -1284,6 +1319,9 @@
       </c>
       <c r="Q21" t="n">
         <v>190850</v>
+      </c>
+      <c r="R21" t="n">
+        <v>194985</v>
       </c>
     </row>
     <row r="22">
@@ -1321,6 +1359,9 @@
       </c>
       <c r="Q22" t="n">
         <v>196955</v>
+      </c>
+      <c r="R22" t="n">
+        <v>201748</v>
       </c>
     </row>
     <row r="23">
@@ -1356,6 +1397,9 @@
       </c>
       <c r="Q23" t="n">
         <v>203460</v>
+      </c>
+      <c r="R23" t="n">
+        <v>209188</v>
       </c>
     </row>
     <row r="24">
@@ -1389,6 +1433,9 @@
       </c>
       <c r="Q24" t="n">
         <v>210361</v>
+      </c>
+      <c r="R24" t="n">
+        <v>217200</v>
       </c>
     </row>
     <row r="25">
@@ -1420,6 +1467,9 @@
       </c>
       <c r="Q25" t="n">
         <v>217295</v>
+      </c>
+      <c r="R25" t="n">
+        <v>225429</v>
       </c>
     </row>
     <row r="26">
@@ -1449,6 +1499,9 @@
       </c>
       <c r="Q26" t="n">
         <v>223127</v>
+      </c>
+      <c r="R26" t="n">
+        <v>232913</v>
       </c>
     </row>
     <row r="27">
@@ -1476,6 +1529,9 @@
       </c>
       <c r="Q27" t="n">
         <v>228721</v>
+      </c>
+      <c r="R27" t="n">
+        <v>238559</v>
       </c>
     </row>
     <row r="28">
@@ -1501,6 +1557,9 @@
       </c>
       <c r="Q28" t="n">
         <v>234358</v>
+      </c>
+      <c r="R28" t="n">
+        <v>246515</v>
       </c>
     </row>
     <row r="29">
@@ -1525,6 +1584,33 @@
       <c r="Q29" t="n">
         <v>239547</v>
       </c>
+      <c r="R29" t="n">
+        <v>253359</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="n">
+        <v>262619</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,6 +1678,9 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1617,6 +1706,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
+      <c r="R2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1644,6 +1734,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
+      <c r="R3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1673,6 +1764,7 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
+      <c r="R4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1704,6 +1796,7 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
+      <c r="R5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1737,6 +1830,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
+      <c r="R6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1772,6 +1866,7 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
+      <c r="R7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1809,6 +1904,7 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
+      <c r="R8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1848,6 +1944,7 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1889,6 +1986,7 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1932,6 +2030,7 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1977,6 +2076,7 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2024,6 +2124,7 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2073,13 +2174,14 @@
       </c>
       <c r="P14"/>
       <c r="Q14"/>
+      <c r="R14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>10634</v>
+        <v>10636</v>
       </c>
       <c r="C15" t="n">
         <v>8565</v>
@@ -2124,12 +2226,15 @@
         <v>10695</v>
       </c>
       <c r="Q15"/>
+      <c r="R15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="n">
+        <v>11206</v>
+      </c>
       <c r="C16"/>
       <c r="D16" t="n">
         <v>9379</v>
@@ -2173,6 +2278,7 @@
       <c r="Q16" t="n">
         <v>11208</v>
       </c>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2219,6 +2325,9 @@
       </c>
       <c r="Q17" t="n">
         <v>11888</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11862</v>
       </c>
     </row>
     <row r="18">
@@ -2264,6 +2373,9 @@
       </c>
       <c r="Q18" t="n">
         <v>12442</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12302</v>
       </c>
     </row>
     <row r="19">
@@ -2307,6 +2419,9 @@
       </c>
       <c r="Q19" t="n">
         <v>13298</v>
+      </c>
+      <c r="R19" t="n">
+        <v>12915</v>
       </c>
     </row>
     <row r="20">
@@ -2348,6 +2463,9 @@
       </c>
       <c r="Q20" t="n">
         <v>14039</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13550</v>
       </c>
     </row>
     <row r="21">
@@ -2387,6 +2505,9 @@
       </c>
       <c r="Q21" t="n">
         <v>14700</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14234</v>
       </c>
     </row>
     <row r="22">
@@ -2424,6 +2545,9 @@
       </c>
       <c r="Q22" t="n">
         <v>15308</v>
+      </c>
+      <c r="R22" t="n">
+        <v>14718</v>
       </c>
     </row>
     <row r="23">
@@ -2459,6 +2583,9 @@
       </c>
       <c r="Q23" t="n">
         <v>16044</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15306</v>
       </c>
     </row>
     <row r="24">
@@ -2492,6 +2619,9 @@
       </c>
       <c r="Q24" t="n">
         <v>16707</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15968</v>
       </c>
     </row>
     <row r="25">
@@ -2523,6 +2653,9 @@
       </c>
       <c r="Q25" t="n">
         <v>17601</v>
+      </c>
+      <c r="R25" t="n">
+        <v>16693</v>
       </c>
     </row>
     <row r="26">
@@ -2552,6 +2685,9 @@
       </c>
       <c r="Q26" t="n">
         <v>18272</v>
+      </c>
+      <c r="R26" t="n">
+        <v>17323</v>
       </c>
     </row>
     <row r="27">
@@ -2579,6 +2715,9 @@
       </c>
       <c r="Q27" t="n">
         <v>18652</v>
+      </c>
+      <c r="R27" t="n">
+        <v>17919</v>
       </c>
     </row>
     <row r="28">
@@ -2604,6 +2743,9 @@
       </c>
       <c r="Q28" t="n">
         <v>19427</v>
+      </c>
+      <c r="R28" t="n">
+        <v>18544</v>
       </c>
     </row>
     <row r="29">
@@ -2628,6 +2770,33 @@
       <c r="Q29" t="n">
         <v>19936</v>
       </c>
+      <c r="R29" t="n">
+        <v>19165</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30" t="n">
+        <v>19977</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-30</t>
   </si>
 </sst>
 </file>
@@ -495,6 +498,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -521,6 +527,7 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -549,6 +556,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -579,6 +587,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -611,6 +620,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -645,6 +655,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -681,6 +692,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -719,6 +731,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -759,6 +772,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -801,6 +815,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -845,6 +860,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -891,6 +907,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -939,6 +956,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -989,6 +1007,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1041,13 +1060,14 @@
       </c>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>157866</v>
+        <v>158280</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
@@ -1093,12 +1113,15 @@
         <v>156601</v>
       </c>
       <c r="R16"/>
+      <c r="S16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>167764</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -1143,6 +1166,7 @@
       <c r="R17" t="n">
         <v>165634</v>
       </c>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1190,6 +1214,9 @@
       </c>
       <c r="R18" t="n">
         <v>170757</v>
+      </c>
+      <c r="S18" t="n">
+        <v>173522</v>
       </c>
     </row>
     <row r="19">
@@ -1236,6 +1263,9 @@
       </c>
       <c r="R19" t="n">
         <v>178512</v>
+      </c>
+      <c r="S19" t="n">
+        <v>181756</v>
       </c>
     </row>
     <row r="20">
@@ -1280,6 +1310,9 @@
       </c>
       <c r="R20" t="n">
         <v>186141</v>
+      </c>
+      <c r="S20" t="n">
+        <v>189882</v>
       </c>
     </row>
     <row r="21">
@@ -1322,6 +1355,9 @@
       </c>
       <c r="R21" t="n">
         <v>194985</v>
+      </c>
+      <c r="S21" t="n">
+        <v>200016</v>
       </c>
     </row>
     <row r="22">
@@ -1362,6 +1398,9 @@
       </c>
       <c r="R22" t="n">
         <v>201748</v>
+      </c>
+      <c r="S22" t="n">
+        <v>207915</v>
       </c>
     </row>
     <row r="23">
@@ -1400,6 +1439,9 @@
       </c>
       <c r="R23" t="n">
         <v>209188</v>
+      </c>
+      <c r="S23" t="n">
+        <v>216089</v>
       </c>
     </row>
     <row r="24">
@@ -1436,6 +1478,9 @@
       </c>
       <c r="R24" t="n">
         <v>217200</v>
+      </c>
+      <c r="S24" t="n">
+        <v>224451</v>
       </c>
     </row>
     <row r="25">
@@ -1470,6 +1515,9 @@
       </c>
       <c r="R25" t="n">
         <v>225429</v>
+      </c>
+      <c r="S25" t="n">
+        <v>234169</v>
       </c>
     </row>
     <row r="26">
@@ -1502,6 +1550,9 @@
       </c>
       <c r="R26" t="n">
         <v>232913</v>
+      </c>
+      <c r="S26" t="n">
+        <v>243800</v>
       </c>
     </row>
     <row r="27">
@@ -1532,6 +1583,9 @@
       </c>
       <c r="R27" t="n">
         <v>238559</v>
+      </c>
+      <c r="S27" t="n">
+        <v>251877</v>
       </c>
     </row>
     <row r="28">
@@ -1560,6 +1614,9 @@
       </c>
       <c r="R28" t="n">
         <v>246515</v>
+      </c>
+      <c r="S28" t="n">
+        <v>263021</v>
       </c>
     </row>
     <row r="29">
@@ -1586,6 +1643,9 @@
       </c>
       <c r="R29" t="n">
         <v>253359</v>
+      </c>
+      <c r="S29" t="n">
+        <v>272258</v>
       </c>
     </row>
     <row r="30">
@@ -1611,6 +1671,34 @@
       <c r="R30" t="n">
         <v>262619</v>
       </c>
+      <c r="S30" t="n">
+        <v>284276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" t="n">
+        <v>294344</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,6 +1769,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1707,6 +1798,7 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1735,6 +1827,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1765,6 +1858,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1797,6 +1891,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1831,6 +1926,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
+      <c r="S6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1867,6 +1963,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
+      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1905,6 +2002,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
+      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1945,6 +2043,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
+      <c r="S9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1987,6 +2086,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2031,6 +2131,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2077,6 +2178,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2125,6 +2227,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
+      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2175,6 +2278,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
+      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2227,13 +2331,14 @@
       </c>
       <c r="Q15"/>
       <c r="R15"/>
+      <c r="S15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>11206</v>
+        <v>11288</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
@@ -2279,12 +2384,15 @@
         <v>11208</v>
       </c>
       <c r="R16"/>
+      <c r="S16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="n">
+        <v>11821</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
@@ -2329,6 +2437,7 @@
       <c r="R17" t="n">
         <v>11862</v>
       </c>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -2376,6 +2485,9 @@
       </c>
       <c r="R18" t="n">
         <v>12302</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12297</v>
       </c>
     </row>
     <row r="19">
@@ -2422,6 +2534,9 @@
       </c>
       <c r="R19" t="n">
         <v>12915</v>
+      </c>
+      <c r="S19" t="n">
+        <v>12740</v>
       </c>
     </row>
     <row r="20">
@@ -2466,6 +2581,9 @@
       </c>
       <c r="R20" t="n">
         <v>13550</v>
+      </c>
+      <c r="S20" t="n">
+        <v>13302</v>
       </c>
     </row>
     <row r="21">
@@ -2508,6 +2626,9 @@
       </c>
       <c r="R21" t="n">
         <v>14234</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13858</v>
       </c>
     </row>
     <row r="22">
@@ -2548,6 +2669,9 @@
       </c>
       <c r="R22" t="n">
         <v>14718</v>
+      </c>
+      <c r="S22" t="n">
+        <v>14477</v>
       </c>
     </row>
     <row r="23">
@@ -2586,6 +2710,9 @@
       </c>
       <c r="R23" t="n">
         <v>15306</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15161</v>
       </c>
     </row>
     <row r="24">
@@ -2622,6 +2749,9 @@
       </c>
       <c r="R24" t="n">
         <v>15968</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15763</v>
       </c>
     </row>
     <row r="25">
@@ -2656,6 +2786,9 @@
       </c>
       <c r="R25" t="n">
         <v>16693</v>
+      </c>
+      <c r="S25" t="n">
+        <v>16381</v>
       </c>
     </row>
     <row r="26">
@@ -2688,6 +2821,9 @@
       </c>
       <c r="R26" t="n">
         <v>17323</v>
+      </c>
+      <c r="S26" t="n">
+        <v>17019</v>
       </c>
     </row>
     <row r="27">
@@ -2718,6 +2854,9 @@
       </c>
       <c r="R27" t="n">
         <v>17919</v>
+      </c>
+      <c r="S27" t="n">
+        <v>17502</v>
       </c>
     </row>
     <row r="28">
@@ -2746,6 +2885,9 @@
       </c>
       <c r="R28" t="n">
         <v>18544</v>
+      </c>
+      <c r="S28" t="n">
+        <v>18220</v>
       </c>
     </row>
     <row r="29">
@@ -2772,6 +2914,9 @@
       </c>
       <c r="R29" t="n">
         <v>19165</v>
+      </c>
+      <c r="S29" t="n">
+        <v>18874</v>
       </c>
     </row>
     <row r="30">
@@ -2797,6 +2942,34 @@
       <c r="R30" t="n">
         <v>19977</v>
       </c>
+      <c r="S30" t="n">
+        <v>19904</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" t="n">
+        <v>20594</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-31</t>
   </si>
 </sst>
 </file>
@@ -501,6 +504,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -528,6 +534,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -557,6 +564,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -588,6 +596,7 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
+      <c r="T4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -621,6 +630,7 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
+      <c r="T5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -656,6 +666,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
+      <c r="T6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -693,6 +704,7 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
+      <c r="T7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -732,6 +744,7 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
+      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -773,6 +786,7 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -816,6 +830,7 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -861,6 +876,7 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
+      <c r="T11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -908,6 +924,7 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
+      <c r="T12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -957,6 +974,7 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1008,6 +1026,7 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
+      <c r="T14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1061,13 +1080,14 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
+      <c r="T15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>158280</v>
+        <v>158515</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
@@ -1114,13 +1134,14 @@
       </c>
       <c r="R16"/>
       <c r="S16"/>
+      <c r="T16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>167764</v>
+        <v>167709</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1167,12 +1188,15 @@
         <v>165634</v>
       </c>
       <c r="S17"/>
+      <c r="T17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>172104</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1218,6 +1242,7 @@
       <c r="S18" t="n">
         <v>173522</v>
       </c>
+      <c r="T18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1266,6 +1291,9 @@
       </c>
       <c r="S19" t="n">
         <v>181756</v>
+      </c>
+      <c r="T19" t="n">
+        <v>178956</v>
       </c>
     </row>
     <row r="20">
@@ -1313,6 +1341,9 @@
       </c>
       <c r="S20" t="n">
         <v>189882</v>
+      </c>
+      <c r="T20" t="n">
+        <v>187848</v>
       </c>
     </row>
     <row r="21">
@@ -1358,6 +1389,9 @@
       </c>
       <c r="S21" t="n">
         <v>200016</v>
+      </c>
+      <c r="T21" t="n">
+        <v>194467</v>
       </c>
     </row>
     <row r="22">
@@ -1401,6 +1435,9 @@
       </c>
       <c r="S22" t="n">
         <v>207915</v>
+      </c>
+      <c r="T22" t="n">
+        <v>201329</v>
       </c>
     </row>
     <row r="23">
@@ -1442,6 +1479,9 @@
       </c>
       <c r="S23" t="n">
         <v>216089</v>
+      </c>
+      <c r="T23" t="n">
+        <v>208244</v>
       </c>
     </row>
     <row r="24">
@@ -1481,6 +1521,9 @@
       </c>
       <c r="S24" t="n">
         <v>224451</v>
+      </c>
+      <c r="T24" t="n">
+        <v>215634</v>
       </c>
     </row>
     <row r="25">
@@ -1518,6 +1561,9 @@
       </c>
       <c r="S25" t="n">
         <v>234169</v>
+      </c>
+      <c r="T25" t="n">
+        <v>226015</v>
       </c>
     </row>
     <row r="26">
@@ -1553,6 +1599,9 @@
       </c>
       <c r="S26" t="n">
         <v>243800</v>
+      </c>
+      <c r="T26" t="n">
+        <v>234873</v>
       </c>
     </row>
     <row r="27">
@@ -1586,6 +1635,9 @@
       </c>
       <c r="S27" t="n">
         <v>251877</v>
+      </c>
+      <c r="T27" t="n">
+        <v>243563</v>
       </c>
     </row>
     <row r="28">
@@ -1617,6 +1669,9 @@
       </c>
       <c r="S28" t="n">
         <v>263021</v>
+      </c>
+      <c r="T28" t="n">
+        <v>253079</v>
       </c>
     </row>
     <row r="29">
@@ -1646,6 +1701,9 @@
       </c>
       <c r="S29" t="n">
         <v>272258</v>
+      </c>
+      <c r="T29" t="n">
+        <v>263161</v>
       </c>
     </row>
     <row r="30">
@@ -1673,6 +1731,9 @@
       </c>
       <c r="S30" t="n">
         <v>284276</v>
+      </c>
+      <c r="T30" t="n">
+        <v>278162</v>
       </c>
     </row>
     <row r="31">
@@ -1699,6 +1760,35 @@
       <c r="S31" t="n">
         <v>294344</v>
       </c>
+      <c r="T31" t="n">
+        <v>287509</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" t="n">
+        <v>303863</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,6 +1862,9 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1799,6 +1892,7 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+      <c r="T2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1828,6 +1922,7 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
+      <c r="T3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1859,6 +1954,7 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
+      <c r="T4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1892,6 +1988,7 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
+      <c r="T5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1927,6 +2024,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
+      <c r="T6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1964,6 +2062,7 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
+      <c r="T7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2003,6 +2102,7 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
+      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2044,6 +2144,7 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2087,6 +2188,7 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2132,6 +2234,7 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
+      <c r="T11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2179,6 +2282,7 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
+      <c r="T12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2228,6 +2332,7 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
+      <c r="T13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2279,6 +2384,7 @@
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
+      <c r="T14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2332,13 +2438,14 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
+      <c r="T15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>11288</v>
+        <v>11294</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="n">
@@ -2385,13 +2492,14 @@
       </c>
       <c r="R16"/>
       <c r="S16"/>
+      <c r="T16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>11821</v>
+        <v>11818</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2438,12 +2546,15 @@
         <v>11862</v>
       </c>
       <c r="S17"/>
+      <c r="T17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18"/>
+      <c r="B18" t="n">
+        <v>12141</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -2489,6 +2600,7 @@
       <c r="S18" t="n">
         <v>12297</v>
       </c>
+      <c r="T18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2537,6 +2649,9 @@
       </c>
       <c r="S19" t="n">
         <v>12740</v>
+      </c>
+      <c r="T19" t="n">
+        <v>13104</v>
       </c>
     </row>
     <row r="20">
@@ -2584,6 +2699,9 @@
       </c>
       <c r="S20" t="n">
         <v>13302</v>
+      </c>
+      <c r="T20" t="n">
+        <v>14001</v>
       </c>
     </row>
     <row r="21">
@@ -2629,6 +2747,9 @@
       </c>
       <c r="S21" t="n">
         <v>13858</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14758</v>
       </c>
     </row>
     <row r="22">
@@ -2672,6 +2793,9 @@
       </c>
       <c r="S22" t="n">
         <v>14477</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15116</v>
       </c>
     </row>
     <row r="23">
@@ -2713,6 +2837,9 @@
       </c>
       <c r="S23" t="n">
         <v>15161</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16416</v>
       </c>
     </row>
     <row r="24">
@@ -2752,6 +2879,9 @@
       </c>
       <c r="S24" t="n">
         <v>15763</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16659</v>
       </c>
     </row>
     <row r="25">
@@ -2789,6 +2919,9 @@
       </c>
       <c r="S25" t="n">
         <v>16381</v>
+      </c>
+      <c r="T25" t="n">
+        <v>17179</v>
       </c>
     </row>
     <row r="26">
@@ -2824,6 +2957,9 @@
       </c>
       <c r="S26" t="n">
         <v>17019</v>
+      </c>
+      <c r="T26" t="n">
+        <v>17353</v>
       </c>
     </row>
     <row r="27">
@@ -2857,6 +2993,9 @@
       </c>
       <c r="S27" t="n">
         <v>17502</v>
+      </c>
+      <c r="T27" t="n">
+        <v>17440</v>
       </c>
     </row>
     <row r="28">
@@ -2888,6 +3027,9 @@
       </c>
       <c r="S28" t="n">
         <v>18220</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18126</v>
       </c>
     </row>
     <row r="29">
@@ -2917,6 +3059,9 @@
       </c>
       <c r="S29" t="n">
         <v>18874</v>
+      </c>
+      <c r="T29" t="n">
+        <v>19082</v>
       </c>
     </row>
     <row r="30">
@@ -2944,6 +3089,9 @@
       </c>
       <c r="S30" t="n">
         <v>19904</v>
+      </c>
+      <c r="T30" t="n">
+        <v>20797</v>
       </c>
     </row>
     <row r="31">
@@ -2970,6 +3118,35 @@
       <c r="S31" t="n">
         <v>20594</v>
       </c>
+      <c r="T31" t="n">
+        <v>21499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32" t="n">
+        <v>22569</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -1293,7 +1293,7 @@
         <v>181756</v>
       </c>
       <c r="T19" t="n">
-        <v>178956</v>
+        <v>180664</v>
       </c>
     </row>
     <row r="20">
@@ -1343,7 +1343,7 @@
         <v>189882</v>
       </c>
       <c r="T20" t="n">
-        <v>187848</v>
+        <v>188896</v>
       </c>
     </row>
     <row r="21">
@@ -1391,7 +1391,7 @@
         <v>200016</v>
       </c>
       <c r="T21" t="n">
-        <v>194467</v>
+        <v>198415</v>
       </c>
     </row>
     <row r="22">
@@ -1437,7 +1437,7 @@
         <v>207915</v>
       </c>
       <c r="T22" t="n">
-        <v>201329</v>
+        <v>205969</v>
       </c>
     </row>
     <row r="23">
@@ -1481,7 +1481,7 @@
         <v>216089</v>
       </c>
       <c r="T23" t="n">
-        <v>208244</v>
+        <v>216051</v>
       </c>
     </row>
     <row r="24">
@@ -1523,7 +1523,7 @@
         <v>224451</v>
       </c>
       <c r="T24" t="n">
-        <v>215634</v>
+        <v>225214</v>
       </c>
     </row>
     <row r="25">
@@ -1563,7 +1563,7 @@
         <v>234169</v>
       </c>
       <c r="T25" t="n">
-        <v>226015</v>
+        <v>234219</v>
       </c>
     </row>
     <row r="26">
@@ -1601,7 +1601,7 @@
         <v>243800</v>
       </c>
       <c r="T26" t="n">
-        <v>234873</v>
+        <v>244412</v>
       </c>
     </row>
     <row r="27">
@@ -1637,7 +1637,7 @@
         <v>251877</v>
       </c>
       <c r="T27" t="n">
-        <v>243563</v>
+        <v>251266</v>
       </c>
     </row>
     <row r="28">
@@ -1671,7 +1671,7 @@
         <v>263021</v>
       </c>
       <c r="T28" t="n">
-        <v>253079</v>
+        <v>262518</v>
       </c>
     </row>
     <row r="29">
@@ -1703,7 +1703,7 @@
         <v>272258</v>
       </c>
       <c r="T29" t="n">
-        <v>263161</v>
+        <v>272558</v>
       </c>
     </row>
     <row r="30">
@@ -1733,7 +1733,7 @@
         <v>284276</v>
       </c>
       <c r="T30" t="n">
-        <v>278162</v>
+        <v>286282</v>
       </c>
     </row>
     <row r="31">
@@ -1761,7 +1761,7 @@
         <v>294344</v>
       </c>
       <c r="T31" t="n">
-        <v>287509</v>
+        <v>297565</v>
       </c>
     </row>
     <row r="32">
@@ -1787,7 +1787,7 @@
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32" t="n">
-        <v>303863</v>
+        <v>310112</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +2651,7 @@
         <v>12740</v>
       </c>
       <c r="T19" t="n">
-        <v>13104</v>
+        <v>12672</v>
       </c>
     </row>
     <row r="20">
@@ -2701,7 +2701,7 @@
         <v>13302</v>
       </c>
       <c r="T20" t="n">
-        <v>14001</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="21">
@@ -2749,7 +2749,7 @@
         <v>13858</v>
       </c>
       <c r="T21" t="n">
-        <v>14758</v>
+        <v>13806</v>
       </c>
     </row>
     <row r="22">
@@ -2795,7 +2795,7 @@
         <v>14477</v>
       </c>
       <c r="T22" t="n">
-        <v>15116</v>
+        <v>14287</v>
       </c>
     </row>
     <row r="23">
@@ -2839,7 +2839,7 @@
         <v>15161</v>
       </c>
       <c r="T23" t="n">
-        <v>16416</v>
+        <v>14965</v>
       </c>
     </row>
     <row r="24">
@@ -2881,7 +2881,7 @@
         <v>15763</v>
       </c>
       <c r="T24" t="n">
-        <v>16659</v>
+        <v>15555</v>
       </c>
     </row>
     <row r="25">
@@ -2921,7 +2921,7 @@
         <v>16381</v>
       </c>
       <c r="T25" t="n">
-        <v>17179</v>
+        <v>16143</v>
       </c>
     </row>
     <row r="26">
@@ -2959,7 +2959,7 @@
         <v>17019</v>
       </c>
       <c r="T26" t="n">
-        <v>17353</v>
+        <v>16773</v>
       </c>
     </row>
     <row r="27">
@@ -2995,7 +2995,7 @@
         <v>17502</v>
       </c>
       <c r="T27" t="n">
-        <v>17440</v>
+        <v>17229</v>
       </c>
     </row>
     <row r="28">
@@ -3029,7 +3029,7 @@
         <v>18220</v>
       </c>
       <c r="T28" t="n">
-        <v>18126</v>
+        <v>17927</v>
       </c>
     </row>
     <row r="29">
@@ -3061,7 +3061,7 @@
         <v>18874</v>
       </c>
       <c r="T29" t="n">
-        <v>19082</v>
+        <v>18570</v>
       </c>
     </row>
     <row r="30">
@@ -3091,7 +3091,7 @@
         <v>19904</v>
       </c>
       <c r="T30" t="n">
-        <v>20797</v>
+        <v>19470</v>
       </c>
     </row>
     <row r="31">
@@ -3119,7 +3119,7 @@
         <v>20594</v>
       </c>
       <c r="T31" t="n">
-        <v>21499</v>
+        <v>20213</v>
       </c>
     </row>
     <row r="32">
@@ -3145,7 +3145,7 @@
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32" t="n">
-        <v>22569</v>
+        <v>21031</v>
       </c>
     </row>
   </sheetData>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
   </si>
 </sst>
 </file>
@@ -507,6 +510,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -535,6 +541,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -565,6 +572,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -597,6 +605,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -631,6 +640,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -667,6 +677,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -705,6 +716,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -745,6 +757,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -787,6 +800,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -831,6 +845,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -877,6 +892,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -925,6 +941,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -975,6 +992,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1027,6 +1045,7 @@
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1081,6 +1100,7 @@
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1135,6 +1155,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1189,13 +1210,14 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>172104</v>
+        <v>171983</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1243,12 +1265,15 @@
         <v>173522</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>178819</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1295,6 +1320,7 @@
       <c r="T19" t="n">
         <v>180664</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1344,6 +1370,9 @@
       </c>
       <c r="T20" t="n">
         <v>188896</v>
+      </c>
+      <c r="U20" t="n">
+        <v>187071</v>
       </c>
     </row>
     <row r="21">
@@ -1392,6 +1421,9 @@
       </c>
       <c r="T21" t="n">
         <v>198415</v>
+      </c>
+      <c r="U21" t="n">
+        <v>195658</v>
       </c>
     </row>
     <row r="22">
@@ -1438,6 +1470,9 @@
       </c>
       <c r="T22" t="n">
         <v>205969</v>
+      </c>
+      <c r="U22" t="n">
+        <v>202090</v>
       </c>
     </row>
     <row r="23">
@@ -1482,6 +1517,9 @@
       </c>
       <c r="T23" t="n">
         <v>216051</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212629</v>
       </c>
     </row>
     <row r="24">
@@ -1524,6 +1562,9 @@
       </c>
       <c r="T24" t="n">
         <v>225214</v>
+      </c>
+      <c r="U24" t="n">
+        <v>221715</v>
       </c>
     </row>
     <row r="25">
@@ -1564,6 +1605,9 @@
       </c>
       <c r="T25" t="n">
         <v>234219</v>
+      </c>
+      <c r="U25" t="n">
+        <v>229063</v>
       </c>
     </row>
     <row r="26">
@@ -1602,6 +1646,9 @@
       </c>
       <c r="T26" t="n">
         <v>244412</v>
+      </c>
+      <c r="U26" t="n">
+        <v>237685</v>
       </c>
     </row>
     <row r="27">
@@ -1638,6 +1685,9 @@
       </c>
       <c r="T27" t="n">
         <v>251266</v>
+      </c>
+      <c r="U27" t="n">
+        <v>244273</v>
       </c>
     </row>
     <row r="28">
@@ -1672,6 +1722,9 @@
       </c>
       <c r="T28" t="n">
         <v>262518</v>
+      </c>
+      <c r="U28" t="n">
+        <v>253751</v>
       </c>
     </row>
     <row r="29">
@@ -1704,6 +1757,9 @@
       </c>
       <c r="T29" t="n">
         <v>272558</v>
+      </c>
+      <c r="U29" t="n">
+        <v>263398</v>
       </c>
     </row>
     <row r="30">
@@ -1734,6 +1790,9 @@
       </c>
       <c r="T30" t="n">
         <v>286282</v>
+      </c>
+      <c r="U30" t="n">
+        <v>275263</v>
       </c>
     </row>
     <row r="31">
@@ -1762,6 +1821,9 @@
       </c>
       <c r="T31" t="n">
         <v>297565</v>
+      </c>
+      <c r="U31" t="n">
+        <v>285147</v>
       </c>
     </row>
     <row r="32">
@@ -1789,6 +1851,36 @@
       <c r="T32" t="n">
         <v>310112</v>
       </c>
+      <c r="U32" t="n">
+        <v>296579</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>307078</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,6 +1957,9 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1893,6 +1988,7 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
+      <c r="U2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1923,6 +2019,7 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="U3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1955,6 +2052,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="U4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1989,6 +2087,7 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+      <c r="U5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2025,6 +2124,7 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
+      <c r="U6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2063,6 +2163,7 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
+      <c r="U7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2103,6 +2204,7 @@
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
+      <c r="U8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2145,6 +2247,7 @@
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
+      <c r="U9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2189,6 +2292,7 @@
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
+      <c r="U10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2235,6 +2339,7 @@
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
+      <c r="U11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2283,6 +2388,7 @@
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2333,6 +2439,7 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
+      <c r="U13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2385,6 +2492,7 @@
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
+      <c r="U14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2439,6 +2547,7 @@
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2493,6 +2602,7 @@
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
+      <c r="U16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2547,13 +2657,14 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
+      <c r="U17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>12141</v>
+        <v>12137</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2601,12 +2712,15 @@
         <v>12297</v>
       </c>
       <c r="T18"/>
+      <c r="U18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19"/>
+      <c r="B19" t="n">
+        <v>12579</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -2653,6 +2767,7 @@
       <c r="T19" t="n">
         <v>12672</v>
       </c>
+      <c r="U19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -2702,6 +2817,9 @@
       </c>
       <c r="T20" t="n">
         <v>13224</v>
+      </c>
+      <c r="U20" t="n">
+        <v>13069</v>
       </c>
     </row>
     <row r="21">
@@ -2750,6 +2868,9 @@
       </c>
       <c r="T21" t="n">
         <v>13806</v>
+      </c>
+      <c r="U21" t="n">
+        <v>13585</v>
       </c>
     </row>
     <row r="22">
@@ -2796,6 +2917,9 @@
       </c>
       <c r="T22" t="n">
         <v>14287</v>
+      </c>
+      <c r="U22" t="n">
+        <v>14016</v>
       </c>
     </row>
     <row r="23">
@@ -2840,6 +2964,9 @@
       </c>
       <c r="T23" t="n">
         <v>14965</v>
+      </c>
+      <c r="U23" t="n">
+        <v>14642</v>
       </c>
     </row>
     <row r="24">
@@ -2882,6 +3009,9 @@
       </c>
       <c r="T24" t="n">
         <v>15555</v>
+      </c>
+      <c r="U24" t="n">
+        <v>15169</v>
       </c>
     </row>
     <row r="25">
@@ -2922,6 +3052,9 @@
       </c>
       <c r="T25" t="n">
         <v>16143</v>
+      </c>
+      <c r="U25" t="n">
+        <v>15703</v>
       </c>
     </row>
     <row r="26">
@@ -2960,6 +3093,9 @@
       </c>
       <c r="T26" t="n">
         <v>16773</v>
+      </c>
+      <c r="U26" t="n">
+        <v>16177</v>
       </c>
     </row>
     <row r="27">
@@ -2996,6 +3132,9 @@
       </c>
       <c r="T27" t="n">
         <v>17229</v>
+      </c>
+      <c r="U27" t="n">
+        <v>16531</v>
       </c>
     </row>
     <row r="28">
@@ -3030,6 +3169,9 @@
       </c>
       <c r="T28" t="n">
         <v>17927</v>
+      </c>
+      <c r="U28" t="n">
+        <v>17096</v>
       </c>
     </row>
     <row r="29">
@@ -3062,6 +3204,9 @@
       </c>
       <c r="T29" t="n">
         <v>18570</v>
+      </c>
+      <c r="U29" t="n">
+        <v>17670</v>
       </c>
     </row>
     <row r="30">
@@ -3092,6 +3237,9 @@
       </c>
       <c r="T30" t="n">
         <v>19470</v>
+      </c>
+      <c r="U30" t="n">
+        <v>18456</v>
       </c>
     </row>
     <row r="31">
@@ -3120,6 +3268,9 @@
       </c>
       <c r="T31" t="n">
         <v>20213</v>
+      </c>
+      <c r="U31" t="n">
+        <v>19019</v>
       </c>
     </row>
     <row r="32">
@@ -3147,6 +3298,36 @@
       <c r="T32" t="n">
         <v>21031</v>
       </c>
+      <c r="U32" t="n">
+        <v>19715</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="n">
+        <v>20355</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/belg/forecasts_table.xlsx
+++ b/belg/forecasts_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-02</t>
   </si>
 </sst>
 </file>
@@ -513,6 +516,9 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -542,6 +548,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -573,6 +580,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -606,6 +614,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -641,6 +650,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -678,6 +688,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -717,6 +728,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -758,6 +770,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -801,6 +814,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -846,6 +860,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -893,6 +908,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -942,6 +958,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -993,6 +1010,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1046,6 +1064,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1101,6 +1120,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1156,6 +1176,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1211,13 +1232,14 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>171983</v>
+        <v>172062</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1266,13 +1288,14 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>178819</v>
+        <v>178761</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1321,12 +1344,15 @@
         <v>180664</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>187649</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1374,6 +1400,7 @@
       <c r="U20" t="n">
         <v>187071</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1424,6 +1451,9 @@
       </c>
       <c r="U21" t="n">
         <v>195658</v>
+      </c>
+      <c r="V21" t="n">
+        <v>194336</v>
       </c>
     </row>
     <row r="22">
@@ -1473,6 +1503,9 @@
       </c>
       <c r="U22" t="n">
         <v>202090</v>
+      </c>
+      <c r="V22" t="n">
+        <v>202986</v>
       </c>
     </row>
     <row r="23">
@@ -1520,6 +1553,9 @@
       </c>
       <c r="U23" t="n">
         <v>212629</v>
+      </c>
+      <c r="V23" t="n">
+        <v>213468</v>
       </c>
     </row>
     <row r="24">
@@ -1565,6 +1601,9 @@
       </c>
       <c r="U24" t="n">
         <v>221715</v>
+      </c>
+      <c r="V24" t="n">
+        <v>220812</v>
       </c>
     </row>
     <row r="25">
@@ -1608,6 +1647,9 @@
       </c>
       <c r="U25" t="n">
         <v>229063</v>
+      </c>
+      <c r="V25" t="n">
+        <v>228566</v>
       </c>
     </row>
     <row r="26">
@@ -1649,6 +1691,9 @@
       </c>
       <c r="U26" t="n">
         <v>237685</v>
+      </c>
+      <c r="V26" t="n">
+        <v>235332</v>
       </c>
     </row>
     <row r="27">
@@ -1688,6 +1733,9 @@
       </c>
       <c r="U27" t="n">
         <v>244273</v>
+      </c>
+      <c r="V27" t="n">
+        <v>242099</v>
       </c>
     </row>
     <row r="28">
@@ -1725,6 +1773,9 @@
       </c>
       <c r="U28" t="n">
         <v>253751</v>
+      </c>
+      <c r="V28" t="n">
+        <v>249995</v>
       </c>
     </row>
     <row r="29">
@@ -1760,6 +1811,9 @@
       </c>
       <c r="U29" t="n">
         <v>263398</v>
+      </c>
+      <c r="V29" t="n">
+        <v>259673</v>
       </c>
     </row>
     <row r="30">
@@ -1793,6 +1847,9 @@
       </c>
       <c r="U30" t="n">
         <v>275263</v>
+      </c>
+      <c r="V30" t="n">
+        <v>271274</v>
       </c>
     </row>
     <row r="31">
@@ -1824,6 +1881,9 @@
       </c>
       <c r="U31" t="n">
         <v>285147</v>
+      </c>
+      <c r="V31" t="n">
+        <v>280167</v>
       </c>
     </row>
     <row r="32">
@@ -1853,6 +1913,9 @@
       </c>
       <c r="U32" t="n">
         <v>296579</v>
+      </c>
+      <c r="V32" t="n">
+        <v>290729</v>
       </c>
     </row>
     <row r="33">
@@ -1881,6 +1944,37 @@
       <c r="U33" t="n">
         <v>307078</v>
       </c>
+      <c r="V33" t="n">
+        <v>300363</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>309696</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1959,6 +2053,9 @@
       </c>
       <c r="U1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -1989,6 +2086,7 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -2020,6 +2118,7 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2053,6 +2152,7 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -2088,6 +2188,7 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2125,6 +2226,7 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2164,6 +2266,7 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -2205,6 +2308,7 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2248,6 +2352,7 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -2293,6 +2398,7 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -2340,6 +2446,7 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -2389,6 +2496,7 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
+      <c r="V12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2440,6 +2548,7 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
+      <c r="V13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2493,6 +2602,7 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
+      <c r="V14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2548,6 +2658,7 @@
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
+      <c r="V15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -2603,6 +2714,7 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
+      <c r="V16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2658,13 +2770,14 @@
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
+      <c r="V17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>12137</v>
+        <v>12138</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -2713,13 +2826,14 @@
       </c>
       <c r="T18"/>
       <c r="U18"/>
+      <c r="V18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>12579</v>
+        <v>12581</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2768,12 +2882,15 @@
         <v>12672</v>
       </c>
       <c r="U19"/>
+      <c r="V19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20"/>
+      <c r="B20" t="n">
+        <v>13406</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -2821,6 +2938,7 @@
       <c r="U20" t="n">
         <v>13069</v>
       </c>
+      <c r="V20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2871,6 +2989,9 @@
       </c>
       <c r="U21" t="n">
         <v>13585</v>
+      </c>
+      <c r="V21" t="n">
+        <v>13697</v>
       </c>
     </row>
     <row r="22">
@@ -2920,6 +3041,9 @@
       </c>
       <c r="U22" t="n">
         <v>14016</v>
+      </c>
+      <c r="V22" t="n">
+        <v>14484</v>
       </c>
     </row>
     <row r="23">
@@ -2967,6 +3091,9 @@
       </c>
       <c r="U23" t="n">
         <v>14642</v>
+      </c>
+      <c r="V23" t="n">
+        <v>15222</v>
       </c>
     </row>
     <row r="24">
@@ -3012,6 +3139,9 @@
       </c>
       <c r="U24" t="n">
         <v>15169</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15662</v>
       </c>
     </row>
     <row r="25">
@@ -3055,6 +3185,9 @@
       </c>
       <c r="U25" t="n">
         <v>15703</v>
+      </c>
+      <c r="V25" t="n">
+        <v>16174</v>
       </c>
     </row>
     <row r="26">
@@ -3096,6 +3229,9 @@
       </c>
       <c r="U26" t="n">
         <v>16177</v>
+      </c>
+      <c r="V26" t="n">
+        <v>16622</v>
       </c>
     </row>
     <row r="27">
@@ -3135,6 +3271,9 @@
       </c>
       <c r="U27" t="n">
         <v>16531</v>
+      </c>
+      <c r="V27" t="n">
+        <v>17144</v>
       </c>
     </row>
     <row r="28">
@@ -3172,6 +3311,9 @@
       </c>
       <c r="U28" t="n">
         <v>17096</v>
+      </c>
+      <c r="V28" t="n">
+        <v>17635</v>
       </c>
     </row>
     <row r="29">
@@ -3207,6 +3349,9 @@
       </c>
       <c r="U29" t="n">
         <v>17670</v>
+      </c>
+      <c r="V29" t="n">
+        <v>18345</v>
       </c>
     </row>
     <row r="30">
@@ -3240,6 +3385,9 @@
       </c>
       <c r="U30" t="n">
         <v>18456</v>
+      </c>
+      <c r="V30" t="n">
+        <v>19158</v>
       </c>
     </row>
     <row r="31">
@@ -3271,6 +3419,9 @@
       </c>
       <c r="U31" t="n">
         <v>19019</v>
+      </c>
+      <c r="V31" t="n">
+        <v>19753</v>
       </c>
     </row>
     <row r="32">
@@ -3300,6 +3451,9 @@
       </c>
       <c r="U32" t="n">
         <v>19715</v>
+      </c>
+      <c r="V32" t="n">
+        <v>20489</v>
       </c>
     </row>
     <row r="33">
@@ -3328,6 +3482,37 @@
       <c r="U33" t="n">
         <v>20355</v>
       </c>
+      <c r="V33" t="n">
+        <v>21134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34" t="n">
+        <v>21703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
